--- a/用例数据/深A/协议回购/T日/测试结果.xlsx
+++ b/用例数据/深A/协议回购/T日/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="9375" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog2020" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7036" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7057" uniqueCount="579">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -1769,13 +1769,16 @@
   </si>
   <si>
     <t>COSTAMT</t>
+  </si>
+  <si>
+    <t>CCB1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1798,6 +1801,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1807,7 +1816,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1815,14 +1824,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1883,7 +1910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1918,7 +1945,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2129,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI46"/>
   <sheetViews>
-    <sheetView topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="BZ28" sqref="BZ28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2261,7 +2288,7 @@
     <col min="134" max="134" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>575</v>
       </c>
@@ -2680,7 +2707,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>507</v>
       </c>
@@ -2702,6 +2729,9 @@
       <c r="G2" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>140</v>
       </c>
@@ -3012,7 +3042,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>520</v>
       </c>
@@ -3034,6 +3064,9 @@
       <c r="G3" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3353,7 +3386,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>522</v>
       </c>
@@ -3375,6 +3408,9 @@
       <c r="G4" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>181</v>
       </c>
@@ -3685,7 +3721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>527</v>
       </c>
@@ -3707,6 +3743,9 @@
       <c r="G5" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="I5" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>140</v>
       </c>
@@ -4017,7 +4056,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>530</v>
       </c>
@@ -4039,6 +4078,9 @@
       <c r="G6" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>140</v>
       </c>
@@ -4358,7 +4400,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>532</v>
       </c>
@@ -4380,6 +4422,9 @@
       <c r="G7" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>181</v>
       </c>
@@ -4690,7 +4735,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>535</v>
       </c>
@@ -4712,6 +4757,9 @@
       <c r="G8" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>140</v>
       </c>
@@ -5022,7 +5070,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>538</v>
       </c>
@@ -5044,6 +5092,9 @@
       <c r="G9" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="I9" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>140</v>
       </c>
@@ -5363,7 +5414,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>540</v>
       </c>
@@ -5385,6 +5436,9 @@
       <c r="G10" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>181</v>
       </c>
@@ -5695,7 +5749,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>543</v>
       </c>
@@ -5717,6 +5771,9 @@
       <c r="G11" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="I11" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>140</v>
       </c>
@@ -6027,7 +6084,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>546</v>
       </c>
@@ -6049,6 +6106,9 @@
       <c r="G12" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="I12" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>140</v>
       </c>
@@ -6368,7 +6428,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>548</v>
       </c>
@@ -6390,6 +6450,9 @@
       <c r="G13" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="I13" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>181</v>
       </c>
@@ -6700,7 +6763,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>551</v>
       </c>
@@ -6722,6 +6785,9 @@
       <c r="G14" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="I14" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>140</v>
       </c>
@@ -7032,7 +7098,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>554</v>
       </c>
@@ -7054,6 +7120,9 @@
       <c r="G15" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="I15" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>140</v>
       </c>
@@ -7373,7 +7442,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>556</v>
       </c>
@@ -7395,6 +7464,9 @@
       <c r="G16" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="I16" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>181</v>
       </c>
@@ -7705,7 +7777,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>559</v>
       </c>
@@ -7727,6 +7799,9 @@
       <c r="G17" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="I17" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>140</v>
       </c>
@@ -8037,7 +8112,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>562</v>
       </c>
@@ -8059,6 +8134,9 @@
       <c r="G18" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="I18" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>140</v>
       </c>
@@ -8378,7 +8456,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>564</v>
       </c>
@@ -8400,6 +8478,9 @@
       <c r="G19" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="I19" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J19" s="1" t="s">
         <v>181</v>
       </c>
@@ -8710,7 +8791,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>567</v>
       </c>
@@ -8732,6 +8813,9 @@
       <c r="G20" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I20" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J20" s="1" t="s">
         <v>140</v>
       </c>
@@ -9042,7 +9126,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>570</v>
       </c>
@@ -9064,6 +9148,9 @@
       <c r="G21" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="I21" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="J21" s="1" t="s">
         <v>140</v>
       </c>
@@ -9383,7 +9470,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>572</v>
       </c>
@@ -9404,6 +9491,9 @@
       </c>
       <c r="G22" s="1" t="s">
         <v>187</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>181</v>
@@ -9763,7 +9853,7 @@
   <autoFilter ref="A1:ED22"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23305,8 +23395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/用例数据/深A/协议回购/T日/测试结果.xlsx
+++ b/用例数据/深A/协议回购/T日/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15372" windowHeight="9372" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog2020" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">exchangerights!$A$1:$BO$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">quoteRepoPledgeDtl!$A$1:$Z$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">stklist!$A$1:$CD$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tradinglog2020!$A$1:$ED$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tradinglog2020!$A$1:$EC$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">unduerepurchasebonds!$A$1:$AX$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">unduerepurchasebondshis!$A$1:$AX$15</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7057" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7085" uniqueCount="632">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -1557,36 +1557,18 @@
     <t>OTHERFEE4</t>
   </si>
   <si>
-    <t>30052840</t>
-  </si>
-  <si>
-    <t>20221010221151</t>
-  </si>
-  <si>
     <t>20221010000000</t>
   </si>
   <si>
     <t>89991.000</t>
   </si>
   <si>
-    <t>-25668490.090</t>
-  </si>
-  <si>
     <t>9.000</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>20221010163347</t>
-  </si>
-  <si>
-    <t>000006908174</t>
-  </si>
-  <si>
     <t>20221011000000</t>
   </si>
   <si>
@@ -1596,182 +1578,409 @@
     <t>0.0000000000</t>
   </si>
   <si>
-    <t>30052841</t>
-  </si>
-  <si>
-    <t>000006908175</t>
-  </si>
-  <si>
-    <t>30052842</t>
-  </si>
-  <si>
     <t>-90009.000</t>
   </si>
   <si>
-    <t>10350991.000</t>
-  </si>
-  <si>
-    <t>20221010163417</t>
-  </si>
-  <si>
-    <t>000006908176</t>
-  </si>
-  <si>
-    <t>30052843</t>
-  </si>
-  <si>
-    <t>-25578499.090</t>
-  </si>
-  <si>
-    <t>000006908177</t>
-  </si>
-  <si>
-    <t>30052844</t>
-  </si>
-  <si>
-    <t>000006908178</t>
-  </si>
-  <si>
-    <t>30052845</t>
-  </si>
-  <si>
-    <t>10260982.000</t>
-  </si>
-  <si>
-    <t>000006908179</t>
-  </si>
-  <si>
-    <t>30052846</t>
-  </si>
-  <si>
-    <t>-25488508.090</t>
-  </si>
-  <si>
-    <t>000006908180</t>
-  </si>
-  <si>
-    <t>30052847</t>
-  </si>
-  <si>
-    <t>000006908181</t>
-  </si>
-  <si>
-    <t>30052848</t>
-  </si>
-  <si>
-    <t>10170973.000</t>
-  </si>
-  <si>
-    <t>000006908182</t>
-  </si>
-  <si>
-    <t>30052849</t>
-  </si>
-  <si>
-    <t>-25398517.090</t>
-  </si>
-  <si>
-    <t>000006908183</t>
-  </si>
-  <si>
-    <t>30052850</t>
-  </si>
-  <si>
-    <t>000006908184</t>
-  </si>
-  <si>
-    <t>30052851</t>
-  </si>
-  <si>
-    <t>10080964.000</t>
-  </si>
-  <si>
-    <t>000006908185</t>
-  </si>
-  <si>
-    <t>30052852</t>
-  </si>
-  <si>
-    <t>-25308526.090</t>
-  </si>
-  <si>
-    <t>000006908186</t>
-  </si>
-  <si>
-    <t>30052853</t>
-  </si>
-  <si>
-    <t>000006908187</t>
-  </si>
-  <si>
-    <t>30052854</t>
-  </si>
-  <si>
-    <t>9990955.000</t>
-  </si>
-  <si>
-    <t>000006908188</t>
-  </si>
-  <si>
-    <t>30052855</t>
-  </si>
-  <si>
-    <t>-25218535.090</t>
-  </si>
-  <si>
-    <t>000006908189</t>
-  </si>
-  <si>
-    <t>30052856</t>
-  </si>
-  <si>
-    <t>000006908190</t>
-  </si>
-  <si>
-    <t>30052857</t>
-  </si>
-  <si>
-    <t>9900946.000</t>
-  </si>
-  <si>
-    <t>000006908191</t>
-  </si>
-  <si>
-    <t>30052858</t>
-  </si>
-  <si>
-    <t>-25128544.090</t>
-  </si>
-  <si>
-    <t>000006908192</t>
-  </si>
-  <si>
-    <t>30052859</t>
-  </si>
-  <si>
-    <t>000006908193</t>
-  </si>
-  <si>
-    <t>30052860</t>
-  </si>
-  <si>
-    <t>9810937.000</t>
-  </si>
-  <si>
-    <t>000006908194</t>
-  </si>
-  <si>
-    <t>SERIALNUM</t>
+    <t>CONTRACTTYPE</t>
+  </si>
+  <si>
+    <t>COSTAMT</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>30101613</t>
+  </si>
+  <si>
+    <t>20221130205737</t>
+  </si>
+  <si>
+    <t>20221130000000</t>
+  </si>
+  <si>
+    <t>-98302097.360</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>20221130163347</t>
+  </si>
+  <si>
+    <t>000007060454</t>
+  </si>
+  <si>
+    <t>20221201000000</t>
+  </si>
+  <si>
+    <t>20221203000000</t>
+  </si>
+  <si>
+    <t>30101614</t>
+  </si>
+  <si>
+    <t>000007060455</t>
+  </si>
+  <si>
+    <t>30101616</t>
+  </si>
+  <si>
+    <t>-98212106.360</t>
+  </si>
+  <si>
+    <t>000007060457</t>
+  </si>
+  <si>
+    <t>30101617</t>
+  </si>
+  <si>
+    <t>000007060458</t>
+  </si>
+  <si>
+    <t>30101619</t>
+  </si>
+  <si>
+    <t>-98122115.360</t>
+  </si>
+  <si>
+    <t>000007060460</t>
+  </si>
+  <si>
+    <t>30101620</t>
+  </si>
+  <si>
+    <t>000007060461</t>
+  </si>
+  <si>
+    <t>30101622</t>
+  </si>
+  <si>
+    <t>-98032124.360</t>
+  </si>
+  <si>
+    <t>000007060463</t>
+  </si>
+  <si>
+    <t>30101623</t>
+  </si>
+  <si>
+    <t>000007060464</t>
+  </si>
+  <si>
+    <t>30101625</t>
+  </si>
+  <si>
+    <t>-97942133.360</t>
+  </si>
+  <si>
+    <t>000007060466</t>
+  </si>
+  <si>
+    <t>30101626</t>
+  </si>
+  <si>
+    <t>000007060467</t>
+  </si>
+  <si>
+    <t>30101628</t>
+  </si>
+  <si>
+    <t>-97852142.360</t>
+  </si>
+  <si>
+    <t>000007060469</t>
+  </si>
+  <si>
+    <t>30101629</t>
+  </si>
+  <si>
+    <t>000007060470</t>
+  </si>
+  <si>
+    <t>30101631</t>
+  </si>
+  <si>
+    <t>-97762151.360</t>
+  </si>
+  <si>
+    <t>000007060472</t>
+  </si>
+  <si>
+    <t>30101632</t>
+  </si>
+  <si>
+    <t>000007060473</t>
+  </si>
+  <si>
+    <t>30101615</t>
+  </si>
+  <si>
+    <t>-1011456.600</t>
+  </si>
+  <si>
+    <t>20221130163417</t>
+  </si>
+  <si>
+    <t>000007060456</t>
+  </si>
+  <si>
+    <t>30101618</t>
+  </si>
+  <si>
+    <t>-1101465.600</t>
+  </si>
+  <si>
+    <t>000007060459</t>
+  </si>
+  <si>
+    <t>30101621</t>
+  </si>
+  <si>
+    <t>-1191474.600</t>
+  </si>
+  <si>
+    <t>000007060462</t>
+  </si>
+  <si>
+    <t>30101624</t>
+  </si>
+  <si>
+    <t>-1281483.600</t>
+  </si>
+  <si>
+    <t>000007060465</t>
+  </si>
+  <si>
+    <t>30101627</t>
+  </si>
+  <si>
+    <t>-1371492.600</t>
+  </si>
+  <si>
+    <t>000007060468</t>
+  </si>
+  <si>
+    <t>30101630</t>
+  </si>
+  <si>
+    <t>-1461501.600</t>
+  </si>
+  <si>
+    <t>000007060471</t>
+  </si>
+  <si>
+    <t>30101633</t>
+  </si>
+  <si>
+    <t>-1551510.600</t>
+  </si>
+  <si>
+    <t>000007060474</t>
+  </si>
+  <si>
+    <t>122222222</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CONTRACTTYPE</t>
-  </si>
-  <si>
-    <t>COSTAMT</t>
-  </si>
-  <si>
-    <t>CCB1</t>
+    <t>122222222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222226</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222224</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222224</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222228</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222230</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222230</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222232</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222223</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222227</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222229</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222231</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222233</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222223</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222226</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222227</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222224</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222229</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222231</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222232</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222233</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222223</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222226</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222227</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222228</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222229</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222230</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222231</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222233</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222223</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222227</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222228</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222231</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222232</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222233</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122222235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2154,143 +2363,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI46"/>
+  <dimension ref="A1:EI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="9.5" customWidth="1"/>
-    <col min="15" max="15" width="8.5" customWidth="1"/>
-    <col min="16" max="16" width="10.5" customWidth="1"/>
-    <col min="17" max="17" width="8.5" customWidth="1"/>
-    <col min="18" max="18" width="6.5" customWidth="1"/>
-    <col min="19" max="19" width="7.5" customWidth="1"/>
-    <col min="20" max="20" width="10.5" customWidth="1"/>
-    <col min="21" max="21" width="9.5" customWidth="1"/>
-    <col min="22" max="22" width="11.625" customWidth="1"/>
-    <col min="23" max="23" width="16.125" customWidth="1"/>
-    <col min="24" max="24" width="13.875" customWidth="1"/>
-    <col min="25" max="25" width="10.5" customWidth="1"/>
-    <col min="26" max="26" width="13.875" customWidth="1"/>
-    <col min="27" max="27" width="8.5" customWidth="1"/>
-    <col min="28" max="28" width="9.5" customWidth="1"/>
-    <col min="29" max="29" width="22.625" customWidth="1"/>
-    <col min="30" max="30" width="10.5" customWidth="1"/>
-    <col min="31" max="31" width="15" customWidth="1"/>
-    <col min="32" max="33" width="13.875" customWidth="1"/>
-    <col min="34" max="35" width="12.75" customWidth="1"/>
-    <col min="36" max="36" width="9.5" customWidth="1"/>
-    <col min="37" max="37" width="12.75" customWidth="1"/>
-    <col min="38" max="38" width="10.5" customWidth="1"/>
-    <col min="39" max="39" width="13.875" customWidth="1"/>
-    <col min="40" max="40" width="11.625" customWidth="1"/>
-    <col min="41" max="42" width="9.5" customWidth="1"/>
-    <col min="43" max="43" width="13.875" customWidth="1"/>
-    <col min="44" max="44" width="16.125" customWidth="1"/>
-    <col min="45" max="45" width="9.5" customWidth="1"/>
-    <col min="46" max="46" width="12.75" customWidth="1"/>
-    <col min="47" max="47" width="13.875" customWidth="1"/>
-    <col min="48" max="48" width="8.5" customWidth="1"/>
-    <col min="49" max="49" width="17.25" customWidth="1"/>
-    <col min="50" max="50" width="11.625" customWidth="1"/>
-    <col min="51" max="51" width="8.5" customWidth="1"/>
-    <col min="52" max="52" width="9.5" customWidth="1"/>
-    <col min="53" max="53" width="12.75" customWidth="1"/>
-    <col min="54" max="54" width="16.125" customWidth="1"/>
-    <col min="55" max="56" width="12.75" customWidth="1"/>
-    <col min="57" max="57" width="16.125" customWidth="1"/>
-    <col min="58" max="58" width="15" customWidth="1"/>
-    <col min="59" max="59" width="18.375" customWidth="1"/>
-    <col min="60" max="60" width="17.25" customWidth="1"/>
-    <col min="61" max="61" width="13.875" customWidth="1"/>
-    <col min="62" max="62" width="11.625" customWidth="1"/>
-    <col min="63" max="63" width="8.5" customWidth="1"/>
-    <col min="64" max="64" width="13.875" customWidth="1"/>
-    <col min="65" max="65" width="9.5" customWidth="1"/>
-    <col min="66" max="66" width="17.25" customWidth="1"/>
-    <col min="67" max="67" width="16.125" customWidth="1"/>
-    <col min="68" max="68" width="11.625" customWidth="1"/>
-    <col min="69" max="69" width="12.75" customWidth="1"/>
-    <col min="70" max="70" width="11.625" customWidth="1"/>
-    <col min="71" max="71" width="15" customWidth="1"/>
-    <col min="72" max="72" width="11.625" customWidth="1"/>
-    <col min="73" max="73" width="12.75" customWidth="1"/>
-    <col min="74" max="74" width="17.25" customWidth="1"/>
-    <col min="75" max="75" width="20.5" customWidth="1"/>
-    <col min="76" max="76" width="16.125" customWidth="1"/>
-    <col min="77" max="77" width="12.75" customWidth="1"/>
-    <col min="78" max="78" width="11.625" customWidth="1"/>
-    <col min="79" max="79" width="10.5" customWidth="1"/>
-    <col min="80" max="80" width="11.625" customWidth="1"/>
-    <col min="81" max="82" width="7.5" customWidth="1"/>
-    <col min="83" max="84" width="17.25" customWidth="1"/>
-    <col min="85" max="85" width="16.125" customWidth="1"/>
-    <col min="86" max="86" width="11.625" customWidth="1"/>
-    <col min="87" max="87" width="13.875" customWidth="1"/>
-    <col min="88" max="88" width="16.125" customWidth="1"/>
-    <col min="89" max="89" width="10.5" customWidth="1"/>
-    <col min="90" max="90" width="11.625" customWidth="1"/>
-    <col min="91" max="91" width="19.375" customWidth="1"/>
-    <col min="92" max="92" width="16.125" customWidth="1"/>
-    <col min="93" max="93" width="22.625" customWidth="1"/>
-    <col min="94" max="94" width="7.5" customWidth="1"/>
-    <col min="95" max="95" width="18.375" customWidth="1"/>
-    <col min="96" max="96" width="10.5" customWidth="1"/>
-    <col min="97" max="97" width="13.875" customWidth="1"/>
-    <col min="98" max="98" width="12.75" customWidth="1"/>
-    <col min="99" max="99" width="16.125" customWidth="1"/>
-    <col min="100" max="101" width="12.75" customWidth="1"/>
-    <col min="102" max="102" width="9.5" customWidth="1"/>
-    <col min="103" max="103" width="16.125" customWidth="1"/>
-    <col min="104" max="104" width="13.875" customWidth="1"/>
-    <col min="105" max="105" width="11.625" customWidth="1"/>
-    <col min="106" max="107" width="15" customWidth="1"/>
-    <col min="108" max="108" width="9.5" customWidth="1"/>
-    <col min="109" max="109" width="12.75" customWidth="1"/>
-    <col min="110" max="110" width="16.125" customWidth="1"/>
-    <col min="111" max="111" width="15" customWidth="1"/>
-    <col min="112" max="112" width="17.25" customWidth="1"/>
-    <col min="113" max="113" width="9.5" customWidth="1"/>
-    <col min="114" max="114" width="19.375" customWidth="1"/>
-    <col min="115" max="115" width="16.125" customWidth="1"/>
-    <col min="116" max="116" width="20.5" customWidth="1"/>
-    <col min="117" max="117" width="23.75" customWidth="1"/>
-    <col min="118" max="118" width="16.125" customWidth="1"/>
-    <col min="119" max="119" width="17.25" customWidth="1"/>
-    <col min="120" max="120" width="21.5" customWidth="1"/>
-    <col min="121" max="122" width="20.5" customWidth="1"/>
-    <col min="123" max="123" width="19.375" customWidth="1"/>
-    <col min="124" max="124" width="17.25" customWidth="1"/>
-    <col min="125" max="125" width="20.5" customWidth="1"/>
-    <col min="126" max="126" width="18.375" customWidth="1"/>
-    <col min="127" max="127" width="8.5" customWidth="1"/>
-    <col min="128" max="128" width="15" customWidth="1"/>
-    <col min="129" max="129" width="12.75" customWidth="1"/>
-    <col min="130" max="130" width="20.5" customWidth="1"/>
-    <col min="131" max="131" width="10.5" customWidth="1"/>
-    <col min="132" max="132" width="11.625" customWidth="1"/>
-    <col min="133" max="133" width="15" customWidth="1"/>
-    <col min="134" max="134" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" customWidth="1"/>
+    <col min="26" max="26" width="8.44140625" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" customWidth="1"/>
+    <col min="29" max="29" width="10.44140625" customWidth="1"/>
+    <col min="30" max="30" width="15" customWidth="1"/>
+    <col min="31" max="32" width="13.88671875" customWidth="1"/>
+    <col min="33" max="34" width="12.77734375" customWidth="1"/>
+    <col min="35" max="35" width="9.44140625" customWidth="1"/>
+    <col min="36" max="36" width="12.77734375" customWidth="1"/>
+    <col min="37" max="37" width="10.44140625" customWidth="1"/>
+    <col min="38" max="38" width="13.88671875" customWidth="1"/>
+    <col min="39" max="39" width="11.6640625" customWidth="1"/>
+    <col min="40" max="41" width="9.44140625" customWidth="1"/>
+    <col min="42" max="42" width="13.88671875" customWidth="1"/>
+    <col min="43" max="43" width="16.109375" customWidth="1"/>
+    <col min="44" max="44" width="9.44140625" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" customWidth="1"/>
+    <col min="46" max="46" width="13.88671875" customWidth="1"/>
+    <col min="47" max="47" width="8.44140625" customWidth="1"/>
+    <col min="48" max="48" width="17.21875" customWidth="1"/>
+    <col min="49" max="49" width="11.6640625" customWidth="1"/>
+    <col min="50" max="50" width="8.44140625" customWidth="1"/>
+    <col min="51" max="51" width="9.44140625" customWidth="1"/>
+    <col min="52" max="52" width="12.77734375" customWidth="1"/>
+    <col min="53" max="53" width="16.109375" customWidth="1"/>
+    <col min="54" max="55" width="12.77734375" customWidth="1"/>
+    <col min="56" max="56" width="16.109375" customWidth="1"/>
+    <col min="57" max="57" width="15" customWidth="1"/>
+    <col min="58" max="58" width="18.33203125" customWidth="1"/>
+    <col min="59" max="59" width="17.21875" customWidth="1"/>
+    <col min="60" max="60" width="13.88671875" customWidth="1"/>
+    <col min="61" max="61" width="11.6640625" customWidth="1"/>
+    <col min="62" max="62" width="8.44140625" customWidth="1"/>
+    <col min="63" max="63" width="13.88671875" customWidth="1"/>
+    <col min="64" max="64" width="9.44140625" customWidth="1"/>
+    <col min="65" max="65" width="17.21875" customWidth="1"/>
+    <col min="66" max="66" width="16.109375" customWidth="1"/>
+    <col min="67" max="67" width="11.6640625" customWidth="1"/>
+    <col min="68" max="68" width="12.77734375" customWidth="1"/>
+    <col min="69" max="69" width="11.6640625" customWidth="1"/>
+    <col min="70" max="70" width="15" customWidth="1"/>
+    <col min="71" max="71" width="11.6640625" customWidth="1"/>
+    <col min="72" max="72" width="12.77734375" customWidth="1"/>
+    <col min="73" max="73" width="17.21875" customWidth="1"/>
+    <col min="74" max="74" width="20.44140625" customWidth="1"/>
+    <col min="75" max="75" width="16.109375" customWidth="1"/>
+    <col min="76" max="76" width="12.77734375" customWidth="1"/>
+    <col min="77" max="77" width="11.6640625" customWidth="1"/>
+    <col min="78" max="78" width="10.44140625" customWidth="1"/>
+    <col min="79" max="79" width="11.6640625" customWidth="1"/>
+    <col min="80" max="81" width="7.44140625" customWidth="1"/>
+    <col min="82" max="83" width="17.21875" customWidth="1"/>
+    <col min="84" max="84" width="16.109375" customWidth="1"/>
+    <col min="85" max="85" width="11.6640625" customWidth="1"/>
+    <col min="86" max="86" width="13.88671875" customWidth="1"/>
+    <col min="87" max="87" width="16.109375" customWidth="1"/>
+    <col min="88" max="88" width="10.44140625" customWidth="1"/>
+    <col min="89" max="89" width="11.6640625" customWidth="1"/>
+    <col min="90" max="90" width="19.33203125" customWidth="1"/>
+    <col min="91" max="91" width="16.109375" customWidth="1"/>
+    <col min="92" max="92" width="22.6640625" customWidth="1"/>
+    <col min="93" max="93" width="7.44140625" customWidth="1"/>
+    <col min="94" max="94" width="18.33203125" customWidth="1"/>
+    <col min="95" max="95" width="10.44140625" customWidth="1"/>
+    <col min="96" max="96" width="13.88671875" customWidth="1"/>
+    <col min="97" max="97" width="12.77734375" customWidth="1"/>
+    <col min="98" max="98" width="16.109375" customWidth="1"/>
+    <col min="99" max="100" width="12.77734375" customWidth="1"/>
+    <col min="101" max="101" width="9.44140625" customWidth="1"/>
+    <col min="102" max="102" width="16.109375" customWidth="1"/>
+    <col min="103" max="103" width="13.88671875" customWidth="1"/>
+    <col min="104" max="104" width="11.6640625" customWidth="1"/>
+    <col min="105" max="106" width="15" customWidth="1"/>
+    <col min="107" max="107" width="9.44140625" customWidth="1"/>
+    <col min="108" max="108" width="12.77734375" customWidth="1"/>
+    <col min="109" max="109" width="16.109375" customWidth="1"/>
+    <col min="110" max="110" width="15" customWidth="1"/>
+    <col min="111" max="111" width="17.21875" customWidth="1"/>
+    <col min="112" max="112" width="9.44140625" customWidth="1"/>
+    <col min="113" max="113" width="19.33203125" customWidth="1"/>
+    <col min="114" max="114" width="16.109375" customWidth="1"/>
+    <col min="115" max="115" width="20.44140625" customWidth="1"/>
+    <col min="116" max="116" width="23.77734375" customWidth="1"/>
+    <col min="117" max="117" width="16.109375" customWidth="1"/>
+    <col min="118" max="118" width="17.21875" customWidth="1"/>
+    <col min="119" max="119" width="21.44140625" customWidth="1"/>
+    <col min="120" max="121" width="20.44140625" customWidth="1"/>
+    <col min="122" max="122" width="19.33203125" customWidth="1"/>
+    <col min="123" max="123" width="17.21875" customWidth="1"/>
+    <col min="124" max="124" width="20.44140625" customWidth="1"/>
+    <col min="125" max="125" width="18.33203125" customWidth="1"/>
+    <col min="126" max="126" width="8.44140625" customWidth="1"/>
+    <col min="127" max="127" width="15" customWidth="1"/>
+    <col min="128" max="128" width="12.77734375" customWidth="1"/>
+    <col min="129" max="129" width="20.44140625" customWidth="1"/>
+    <col min="130" max="130" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="11.6640625" customWidth="1"/>
+    <col min="132" max="132" width="15" customWidth="1"/>
+    <col min="133" max="133" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>575</v>
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2707,9 +2915,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>135</v>
@@ -2718,19 +2926,20 @@
         <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>578</v>
+      <c r="G2" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>140</v>
@@ -2775,16 +2984,16 @@
         <v>153</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>191</v>
@@ -2793,10 +3002,10 @@
         <v>156</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>156</v>
@@ -2832,7 +3041,7 @@
         <v>157</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>140</v>
@@ -2856,7 +3065,7 @@
         <v>156</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>152</v>
@@ -2889,10 +3098,10 @@
         <v>152</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>138</v>
@@ -2937,13 +3146,13 @@
         <v>152</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>169</v>
@@ -2973,10 +3182,10 @@
         <v>169</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>156</v>
@@ -3026,6 +3235,9 @@
       <c r="EA2" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB2" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC2" s="1" t="s">
         <v>175</v>
       </c>
@@ -3035,6 +3247,9 @@
       <c r="EE2" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF2" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG2" s="1" t="s">
         <v>152</v>
       </c>
@@ -3042,9 +3257,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>176</v>
@@ -3053,19 +3268,20 @@
         <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>578</v>
+      <c r="G3" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>140</v>
@@ -3110,7 +3326,7 @@
         <v>153</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>156</v>
@@ -3119,7 +3335,7 @@
         <v>156</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>191</v>
@@ -3167,7 +3383,7 @@
         <v>157</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>140</v>
@@ -3191,7 +3407,7 @@
         <v>156</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>152</v>
@@ -3224,10 +3440,10 @@
         <v>152</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>152</v>
@@ -3275,13 +3491,13 @@
         <v>152</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>169</v>
@@ -3311,7 +3527,7 @@
         <v>169</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="DJ3" s="1" t="s">
         <v>391</v>
@@ -3386,33 +3602,34 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>578</v>
+      <c r="G4" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>141</v>
@@ -3421,13 +3638,13 @@
         <v>142</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>146</v>
@@ -3454,28 +3671,28 @@
         <v>153</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>156</v>
@@ -3511,10 +3728,10 @@
         <v>157</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>141</v>
@@ -3535,7 +3752,7 @@
         <v>156</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>152</v>
@@ -3568,10 +3785,10 @@
         <v>152</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>138</v>
@@ -3616,13 +3833,13 @@
         <v>152</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>169</v>
@@ -3652,10 +3869,10 @@
         <v>169</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>156</v>
@@ -3705,6 +3922,9 @@
       <c r="EA4" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB4" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC4" s="1" t="s">
         <v>175</v>
       </c>
@@ -3714,6 +3934,9 @@
       <c r="EE4" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF4" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG4" s="1" t="s">
         <v>152</v>
       </c>
@@ -3721,30 +3944,31 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>578</v>
+      <c r="G5" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>140</v>
@@ -3768,10 +3992,10 @@
         <v>146</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>149</v>
@@ -3783,22 +4007,22 @@
         <v>151</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>153</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>510</v>
+        <v>156</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>155</v>
@@ -3807,10 +4031,10 @@
         <v>156</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>512</v>
+        <v>156</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>512</v>
+        <v>156</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>156</v>
@@ -3846,7 +4070,7 @@
         <v>157</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>140</v>
@@ -3870,7 +4094,7 @@
         <v>156</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>152</v>
@@ -3894,7 +4118,7 @@
         <v>164</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>156</v>
@@ -3903,13 +4127,13 @@
         <v>152</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="BR5" s="1" t="s">
         <v>156</v>
@@ -3941,6 +4165,9 @@
       <c r="CB5" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="CC5" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="CD5" s="1" t="s">
         <v>156</v>
       </c>
@@ -3951,13 +4178,13 @@
         <v>152</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>169</v>
@@ -3987,10 +4214,10 @@
         <v>169</v>
       </c>
       <c r="DG5" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>519</v>
+        <v>391</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>156</v>
@@ -4040,6 +4267,9 @@
       <c r="EA5" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB5" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC5" s="1" t="s">
         <v>175</v>
       </c>
@@ -4049,6 +4279,9 @@
       <c r="EE5" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF5" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG5" s="1" t="s">
         <v>152</v>
       </c>
@@ -4056,30 +4289,31 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>578</v>
+      <c r="G6" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>140</v>
@@ -4094,19 +4328,19 @@
         <v>143</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>146</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>149</v>
@@ -4118,34 +4352,34 @@
         <v>151</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>153</v>
       </c>
       <c r="X6" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="AE6" s="1" t="s">
-        <v>156</v>
+        <v>509</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>156</v>
@@ -4181,7 +4415,7 @@
         <v>157</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>140</v>
@@ -4205,7 +4439,7 @@
         <v>156</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>152</v>
@@ -4229,7 +4463,7 @@
         <v>164</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>156</v>
@@ -4238,13 +4472,13 @@
         <v>152</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="BR6" s="1" t="s">
         <v>156</v>
@@ -4276,9 +4510,6 @@
       <c r="CB6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CC6" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="CD6" s="1" t="s">
         <v>156</v>
       </c>
@@ -4289,13 +4520,13 @@
         <v>152</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>169</v>
@@ -4325,10 +4556,10 @@
         <v>169</v>
       </c>
       <c r="DG6" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="DJ6" s="1" t="s">
-        <v>391</v>
+        <v>513</v>
       </c>
       <c r="DK6" s="1" t="s">
         <v>156</v>
@@ -4400,33 +4631,34 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>578</v>
+      <c r="G7" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>141</v>
@@ -4435,22 +4667,22 @@
         <v>142</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>146</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>149</v>
@@ -4462,34 +4694,34 @@
         <v>151</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>153</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>523</v>
+        <v>156</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>512</v>
+        <v>156</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>512</v>
+        <v>156</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>156</v>
@@ -4525,10 +4757,10 @@
         <v>157</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>141</v>
@@ -4549,7 +4781,7 @@
         <v>156</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>152</v>
@@ -4573,7 +4805,7 @@
         <v>164</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BL7" s="1" t="s">
         <v>156</v>
@@ -4582,13 +4814,13 @@
         <v>152</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="BR7" s="1" t="s">
         <v>156</v>
@@ -4620,6 +4852,9 @@
       <c r="CB7" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="CC7" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="CD7" s="1" t="s">
         <v>156</v>
       </c>
@@ -4630,13 +4865,13 @@
         <v>152</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>169</v>
@@ -4666,10 +4901,10 @@
         <v>169</v>
       </c>
       <c r="DG7" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="DJ7" s="1" t="s">
-        <v>519</v>
+        <v>391</v>
       </c>
       <c r="DK7" s="1" t="s">
         <v>156</v>
@@ -4719,6 +4954,9 @@
       <c r="EA7" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB7" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC7" s="1" t="s">
         <v>175</v>
       </c>
@@ -4728,6 +4966,9 @@
       <c r="EE7" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF7" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG7" s="1" t="s">
         <v>152</v>
       </c>
@@ -4735,9 +4976,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>135</v>
@@ -4746,19 +4987,20 @@
         <v>136</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>578</v>
+      <c r="G8" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>140</v>
@@ -4773,10 +5015,10 @@
         <v>143</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>146</v>
@@ -4803,28 +5045,28 @@
         <v>153</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>282</v>
+        <v>191</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>156</v>
@@ -4860,7 +5102,7 @@
         <v>157</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>140</v>
@@ -4884,7 +5126,7 @@
         <v>156</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>152</v>
@@ -4917,10 +5159,10 @@
         <v>152</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="BQ8" s="1" t="s">
         <v>138</v>
@@ -4965,13 +5207,13 @@
         <v>152</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL8" s="1" t="s">
         <v>169</v>
@@ -5001,10 +5243,10 @@
         <v>169</v>
       </c>
       <c r="DG8" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="DJ8" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="DK8" s="1" t="s">
         <v>156</v>
@@ -5054,6 +5296,9 @@
       <c r="EA8" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB8" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC8" s="1" t="s">
         <v>175</v>
       </c>
@@ -5063,6 +5308,9 @@
       <c r="EE8" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF8" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG8" s="1" t="s">
         <v>152</v>
       </c>
@@ -5070,9 +5318,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>176</v>
@@ -5081,19 +5329,20 @@
         <v>136</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>578</v>
+      <c r="G9" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>140</v>
@@ -5108,10 +5357,10 @@
         <v>143</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>146</v>
@@ -5138,7 +5387,7 @@
         <v>153</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>156</v>
@@ -5147,10 +5396,10 @@
         <v>156</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>282</v>
+        <v>191</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>156</v>
@@ -5195,7 +5444,7 @@
         <v>157</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>140</v>
@@ -5219,7 +5468,7 @@
         <v>156</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>152</v>
@@ -5252,10 +5501,10 @@
         <v>152</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>152</v>
@@ -5291,7 +5540,7 @@
         <v>156</v>
       </c>
       <c r="CC9" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="CD9" s="1" t="s">
         <v>156</v>
@@ -5303,13 +5552,13 @@
         <v>152</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK9" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL9" s="1" t="s">
         <v>169</v>
@@ -5339,7 +5588,7 @@
         <v>169</v>
       </c>
       <c r="DG9" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="DJ9" s="1" t="s">
         <v>391</v>
@@ -5414,33 +5663,34 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>578</v>
+      <c r="G10" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>141</v>
@@ -5449,13 +5699,13 @@
         <v>142</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>146</v>
@@ -5482,28 +5732,28 @@
         <v>153</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>156</v>
@@ -5539,10 +5789,10 @@
         <v>157</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>141</v>
@@ -5563,7 +5813,7 @@
         <v>156</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>152</v>
@@ -5596,10 +5846,10 @@
         <v>152</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP10" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="BQ10" s="1" t="s">
         <v>138</v>
@@ -5644,13 +5894,13 @@
         <v>152</v>
       </c>
       <c r="CH10" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK10" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL10" s="1" t="s">
         <v>169</v>
@@ -5680,10 +5930,10 @@
         <v>169</v>
       </c>
       <c r="DG10" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="DJ10" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="DK10" s="1" t="s">
         <v>156</v>
@@ -5733,6 +5983,9 @@
       <c r="EA10" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB10" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC10" s="1" t="s">
         <v>175</v>
       </c>
@@ -5742,6 +5995,9 @@
       <c r="EE10" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF10" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG10" s="1" t="s">
         <v>152</v>
       </c>
@@ -5749,30 +6005,31 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>578</v>
+      <c r="G11" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>140</v>
@@ -5787,19 +6044,19 @@
         <v>143</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>146</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>149</v>
@@ -5811,34 +6068,34 @@
         <v>151</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>153</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>510</v>
+        <v>156</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>512</v>
+        <v>156</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>512</v>
+        <v>156</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>156</v>
@@ -5874,7 +6131,7 @@
         <v>157</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR11" s="1" t="s">
         <v>140</v>
@@ -5898,7 +6155,7 @@
         <v>156</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>152</v>
@@ -5922,7 +6179,7 @@
         <v>164</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BL11" s="1" t="s">
         <v>156</v>
@@ -5931,13 +6188,13 @@
         <v>152</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP11" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="BQ11" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="BR11" s="1" t="s">
         <v>156</v>
@@ -5969,6 +6226,9 @@
       <c r="CB11" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="CC11" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="CD11" s="1" t="s">
         <v>156</v>
       </c>
@@ -5979,13 +6239,13 @@
         <v>152</v>
       </c>
       <c r="CH11" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK11" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL11" s="1" t="s">
         <v>169</v>
@@ -6015,10 +6275,10 @@
         <v>169</v>
       </c>
       <c r="DG11" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="DJ11" s="1" t="s">
-        <v>519</v>
+        <v>391</v>
       </c>
       <c r="DK11" s="1" t="s">
         <v>156</v>
@@ -6068,6 +6328,9 @@
       <c r="EA11" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB11" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC11" s="1" t="s">
         <v>175</v>
       </c>
@@ -6077,6 +6340,9 @@
       <c r="EE11" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF11" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG11" s="1" t="s">
         <v>152</v>
       </c>
@@ -6084,30 +6350,31 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>578</v>
+      <c r="G12" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>140</v>
@@ -6122,19 +6389,19 @@
         <v>143</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>146</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>149</v>
@@ -6146,34 +6413,34 @@
         <v>151</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>153</v>
       </c>
       <c r="X12" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="AE12" s="1" t="s">
-        <v>156</v>
+        <v>509</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>156</v>
@@ -6209,7 +6476,7 @@
         <v>157</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>140</v>
@@ -6233,7 +6500,7 @@
         <v>156</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA12" s="1" t="s">
         <v>152</v>
@@ -6257,7 +6524,7 @@
         <v>164</v>
       </c>
       <c r="BJ12" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BL12" s="1" t="s">
         <v>156</v>
@@ -6266,13 +6533,13 @@
         <v>152</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP12" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="BQ12" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="BR12" s="1" t="s">
         <v>156</v>
@@ -6304,9 +6571,6 @@
       <c r="CB12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CC12" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="CD12" s="1" t="s">
         <v>156</v>
       </c>
@@ -6317,13 +6581,13 @@
         <v>152</v>
       </c>
       <c r="CH12" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="CJ12" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK12" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL12" s="1" t="s">
         <v>169</v>
@@ -6353,10 +6617,10 @@
         <v>169</v>
       </c>
       <c r="DG12" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="DJ12" s="1" t="s">
-        <v>391</v>
+        <v>513</v>
       </c>
       <c r="DK12" s="1" t="s">
         <v>156</v>
@@ -6428,33 +6692,34 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>578</v>
+      <c r="G13" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>141</v>
@@ -6463,22 +6728,22 @@
         <v>142</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>146</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>149</v>
@@ -6490,34 +6755,34 @@
         <v>151</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>153</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>523</v>
+        <v>156</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>512</v>
+        <v>156</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>512</v>
+        <v>156</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>156</v>
@@ -6553,10 +6818,10 @@
         <v>157</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>141</v>
@@ -6577,7 +6842,7 @@
         <v>156</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA13" s="1" t="s">
         <v>152</v>
@@ -6601,7 +6866,7 @@
         <v>164</v>
       </c>
       <c r="BJ13" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BL13" s="1" t="s">
         <v>156</v>
@@ -6610,13 +6875,13 @@
         <v>152</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="BR13" s="1" t="s">
         <v>156</v>
@@ -6648,6 +6913,9 @@
       <c r="CB13" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="CC13" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="CD13" s="1" t="s">
         <v>156</v>
       </c>
@@ -6658,13 +6926,13 @@
         <v>152</v>
       </c>
       <c r="CH13" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="CJ13" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK13" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL13" s="1" t="s">
         <v>169</v>
@@ -6694,10 +6962,10 @@
         <v>169</v>
       </c>
       <c r="DG13" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="DJ13" s="1" t="s">
-        <v>519</v>
+        <v>391</v>
       </c>
       <c r="DK13" s="1" t="s">
         <v>156</v>
@@ -6747,6 +7015,9 @@
       <c r="EA13" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB13" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC13" s="1" t="s">
         <v>175</v>
       </c>
@@ -6756,6 +7027,9 @@
       <c r="EE13" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF13" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG13" s="1" t="s">
         <v>152</v>
       </c>
@@ -6763,9 +7037,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>135</v>
@@ -6774,19 +7048,20 @@
         <v>136</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>578</v>
+      <c r="G14" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>140</v>
@@ -6801,10 +7076,10 @@
         <v>143</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>146</v>
@@ -6828,31 +7103,31 @@
         <v>152</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>156</v>
@@ -6888,7 +7163,7 @@
         <v>157</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR14" s="1" t="s">
         <v>140</v>
@@ -6912,7 +7187,7 @@
         <v>156</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA14" s="1" t="s">
         <v>152</v>
@@ -6945,10 +7220,10 @@
         <v>152</v>
       </c>
       <c r="BN14" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="BQ14" s="1" t="s">
         <v>138</v>
@@ -6993,13 +7268,13 @@
         <v>152</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="CJ14" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK14" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL14" s="1" t="s">
         <v>169</v>
@@ -7029,10 +7304,10 @@
         <v>169</v>
       </c>
       <c r="DG14" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="DJ14" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="DK14" s="1" t="s">
         <v>156</v>
@@ -7082,6 +7357,9 @@
       <c r="EA14" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB14" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC14" s="1" t="s">
         <v>175</v>
       </c>
@@ -7091,6 +7369,9 @@
       <c r="EE14" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF14" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG14" s="1" t="s">
         <v>152</v>
       </c>
@@ -7098,9 +7379,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>176</v>
@@ -7109,19 +7390,20 @@
         <v>136</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>578</v>
+      <c r="G15" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>140</v>
@@ -7136,10 +7418,10 @@
         <v>143</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>146</v>
@@ -7163,10 +7445,10 @@
         <v>177</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>156</v>
@@ -7175,10 +7457,10 @@
         <v>156</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>156</v>
@@ -7223,7 +7505,7 @@
         <v>157</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR15" s="1" t="s">
         <v>140</v>
@@ -7247,7 +7529,7 @@
         <v>156</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA15" s="1" t="s">
         <v>152</v>
@@ -7280,10 +7562,10 @@
         <v>152</v>
       </c>
       <c r="BN15" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP15" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="BQ15" s="1" t="s">
         <v>152</v>
@@ -7319,7 +7601,7 @@
         <v>156</v>
       </c>
       <c r="CC15" s="1" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="CD15" s="1" t="s">
         <v>156</v>
@@ -7331,13 +7613,13 @@
         <v>152</v>
       </c>
       <c r="CH15" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="CJ15" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK15" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL15" s="1" t="s">
         <v>169</v>
@@ -7367,7 +7649,7 @@
         <v>169</v>
       </c>
       <c r="DG15" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="DJ15" s="1" t="s">
         <v>391</v>
@@ -7442,9 +7724,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>179</v>
@@ -7453,19 +7735,20 @@
         <v>136</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>578</v>
+      <c r="G16" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>181</v>
@@ -7480,10 +7763,10 @@
         <v>182</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>146</v>
@@ -7510,28 +7793,28 @@
         <v>153</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>156</v>
@@ -7567,7 +7850,7 @@
         <v>157</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR16" s="1" t="s">
         <v>181</v>
@@ -7591,7 +7874,7 @@
         <v>156</v>
       </c>
       <c r="AZ16" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA16" s="1" t="s">
         <v>152</v>
@@ -7624,10 +7907,10 @@
         <v>152</v>
       </c>
       <c r="BN16" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP16" s="1" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="BQ16" s="1" t="s">
         <v>138</v>
@@ -7672,13 +7955,13 @@
         <v>152</v>
       </c>
       <c r="CH16" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="CJ16" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK16" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL16" s="1" t="s">
         <v>169</v>
@@ -7708,10 +7991,10 @@
         <v>169</v>
       </c>
       <c r="DG16" s="1" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="DJ16" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="DK16" s="1" t="s">
         <v>156</v>
@@ -7761,6 +8044,9 @@
       <c r="EA16" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB16" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC16" s="1" t="s">
         <v>175</v>
       </c>
@@ -7770,6 +8056,9 @@
       <c r="EE16" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF16" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG16" s="1" t="s">
         <v>152</v>
       </c>
@@ -7777,33 +8066,34 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>578</v>
+      <c r="G17" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>141</v>
@@ -7812,13 +8102,13 @@
         <v>142</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>146</v>
@@ -7845,28 +8135,28 @@
         <v>153</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>156</v>
@@ -7902,10 +8192,10 @@
         <v>157</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>141</v>
@@ -7926,7 +8216,7 @@
         <v>156</v>
       </c>
       <c r="AZ17" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA17" s="1" t="s">
         <v>152</v>
@@ -7959,10 +8249,10 @@
         <v>152</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP17" s="1" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="BQ17" s="1" t="s">
         <v>138</v>
@@ -8007,13 +8297,13 @@
         <v>152</v>
       </c>
       <c r="CH17" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="CJ17" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK17" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL17" s="1" t="s">
         <v>169</v>
@@ -8043,10 +8333,10 @@
         <v>169</v>
       </c>
       <c r="DG17" s="1" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="DJ17" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="DK17" s="1" t="s">
         <v>156</v>
@@ -8096,6 +8386,9 @@
       <c r="EA17" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB17" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC17" s="1" t="s">
         <v>175</v>
       </c>
@@ -8105,6 +8398,9 @@
       <c r="EE17" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF17" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG17" s="1" t="s">
         <v>152</v>
       </c>
@@ -8112,33 +8408,34 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>578</v>
+      <c r="G18" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>141</v>
@@ -8147,7 +8444,7 @@
         <v>142</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>144</v>
@@ -8159,10 +8456,10 @@
         <v>146</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>149</v>
@@ -8174,34 +8471,34 @@
         <v>151</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>153</v>
       </c>
       <c r="X18" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD18" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="AE18" s="1" t="s">
-        <v>156</v>
+        <v>509</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>156</v>
@@ -8237,10 +8534,10 @@
         <v>157</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="AS18" s="1" t="s">
         <v>141</v>
@@ -8261,7 +8558,7 @@
         <v>156</v>
       </c>
       <c r="AZ18" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA18" s="1" t="s">
         <v>152</v>
@@ -8285,7 +8582,7 @@
         <v>164</v>
       </c>
       <c r="BJ18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BL18" s="1" t="s">
         <v>156</v>
@@ -8294,13 +8591,13 @@
         <v>152</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP18" s="1" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="BQ18" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="BR18" s="1" t="s">
         <v>156</v>
@@ -8332,9 +8629,6 @@
       <c r="CB18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CC18" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="CD18" s="1" t="s">
         <v>156</v>
       </c>
@@ -8345,13 +8639,13 @@
         <v>152</v>
       </c>
       <c r="CH18" s="1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="CJ18" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK18" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL18" s="1" t="s">
         <v>169</v>
@@ -8381,10 +8675,10 @@
         <v>169</v>
       </c>
       <c r="DG18" s="1" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="DJ18" s="1" t="s">
-        <v>391</v>
+        <v>513</v>
       </c>
       <c r="DK18" s="1" t="s">
         <v>156</v>
@@ -8456,9 +8750,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>179</v>
@@ -8467,19 +8761,20 @@
         <v>136</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>578</v>
+      <c r="G19" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>181</v>
@@ -8494,10 +8789,10 @@
         <v>182</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>146</v>
@@ -8524,28 +8819,28 @@
         <v>153</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>156</v>
@@ -8581,7 +8876,7 @@
         <v>157</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR19" s="1" t="s">
         <v>181</v>
@@ -8605,7 +8900,7 @@
         <v>156</v>
       </c>
       <c r="AZ19" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA19" s="1" t="s">
         <v>152</v>
@@ -8638,10 +8933,10 @@
         <v>152</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP19" s="1" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="BQ19" s="1" t="s">
         <v>138</v>
@@ -8686,13 +8981,13 @@
         <v>152</v>
       </c>
       <c r="CH19" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="CJ19" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK19" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL19" s="1" t="s">
         <v>169</v>
@@ -8722,10 +9017,10 @@
         <v>169</v>
       </c>
       <c r="DG19" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="DJ19" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="DK19" s="1" t="s">
         <v>156</v>
@@ -8775,6 +9070,9 @@
       <c r="EA19" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB19" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC19" s="1" t="s">
         <v>175</v>
       </c>
@@ -8784,6 +9082,9 @@
       <c r="EE19" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF19" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG19" s="1" t="s">
         <v>152</v>
       </c>
@@ -8791,33 +9092,34 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>578</v>
+      <c r="G20" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>141</v>
@@ -8826,13 +9128,13 @@
         <v>142</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>146</v>
@@ -8856,31 +9158,31 @@
         <v>152</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>156</v>
@@ -8916,10 +9218,10 @@
         <v>157</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="AS20" s="1" t="s">
         <v>141</v>
@@ -8940,7 +9242,7 @@
         <v>156</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA20" s="1" t="s">
         <v>152</v>
@@ -8973,10 +9275,10 @@
         <v>152</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP20" s="1" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="BQ20" s="1" t="s">
         <v>138</v>
@@ -9021,13 +9323,13 @@
         <v>152</v>
       </c>
       <c r="CH20" s="1" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="CJ20" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK20" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL20" s="1" t="s">
         <v>169</v>
@@ -9057,10 +9359,10 @@
         <v>169</v>
       </c>
       <c r="DG20" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="DJ20" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="DK20" s="1" t="s">
         <v>156</v>
@@ -9110,6 +9412,9 @@
       <c r="EA20" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB20" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC20" s="1" t="s">
         <v>175</v>
       </c>
@@ -9119,6 +9424,9 @@
       <c r="EE20" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF20" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG20" s="1" t="s">
         <v>152</v>
       </c>
@@ -9126,33 +9434,34 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>578</v>
+      <c r="G21" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>141</v>
@@ -9161,7 +9470,7 @@
         <v>142</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>144</v>
@@ -9173,10 +9482,10 @@
         <v>146</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>149</v>
@@ -9188,34 +9497,34 @@
         <v>151</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="X21" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD21" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="AE21" s="1" t="s">
-        <v>156</v>
+        <v>509</v>
       </c>
       <c r="AF21" s="1" t="s">
         <v>156</v>
@@ -9251,10 +9560,10 @@
         <v>157</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>141</v>
@@ -9275,7 +9584,7 @@
         <v>156</v>
       </c>
       <c r="AZ21" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA21" s="1" t="s">
         <v>152</v>
@@ -9299,7 +9608,7 @@
         <v>164</v>
       </c>
       <c r="BJ21" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BL21" s="1" t="s">
         <v>156</v>
@@ -9308,13 +9617,13 @@
         <v>152</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP21" s="1" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="BQ21" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="BR21" s="1" t="s">
         <v>156</v>
@@ -9346,9 +9655,6 @@
       <c r="CB21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CC21" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="CD21" s="1" t="s">
         <v>156</v>
       </c>
@@ -9359,13 +9665,13 @@
         <v>152</v>
       </c>
       <c r="CH21" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="CJ21" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK21" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL21" s="1" t="s">
         <v>169</v>
@@ -9395,10 +9701,10 @@
         <v>169</v>
       </c>
       <c r="DG21" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="DJ21" s="1" t="s">
-        <v>391</v>
+        <v>513</v>
       </c>
       <c r="DK21" s="1" t="s">
         <v>156</v>
@@ -9470,9 +9776,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>179</v>
@@ -9481,19 +9787,20 @@
         <v>136</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>578</v>
+      <c r="G22" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>181</v>
@@ -9538,16 +9845,16 @@
         <v>186</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>152</v>
@@ -9556,10 +9863,10 @@
         <v>156</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>156</v>
@@ -9595,7 +9902,7 @@
         <v>157</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>513</v>
+        <v>158</v>
       </c>
       <c r="AR22" s="1" t="s">
         <v>181</v>
@@ -9619,7 +9926,7 @@
         <v>156</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="BA22" s="1" t="s">
         <v>152</v>
@@ -9652,10 +9959,10 @@
         <v>152</v>
       </c>
       <c r="BN22" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BP22" s="1" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="BQ22" s="1" t="s">
         <v>138</v>
@@ -9700,13 +10007,13 @@
         <v>152</v>
       </c>
       <c r="CH22" s="1" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="CJ22" s="1" t="s">
         <v>162</v>
       </c>
       <c r="CK22" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="CL22" s="1" t="s">
         <v>169</v>
@@ -9736,10 +10043,10 @@
         <v>169</v>
       </c>
       <c r="DG22" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="DJ22" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="DK22" s="1" t="s">
         <v>156</v>
@@ -9789,6 +10096,9 @@
       <c r="EA22" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="EB22" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="EC22" s="1" t="s">
         <v>175</v>
       </c>
@@ -9798,6 +10108,9 @@
       <c r="EE22" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="EF22" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="EG22" s="1" t="s">
         <v>152</v>
       </c>
@@ -9805,52 +10118,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C46" s="1"/>
-    </row>
+    <row r="23" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:ED22"/>
+  <autoFilter ref="A1:EC22"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9865,83 +10136,83 @@
       <selection activeCell="CA39" sqref="CA39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="1" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
-    <col min="18" max="18" width="17.25" customWidth="1"/>
-    <col min="19" max="19" width="13.875" customWidth="1"/>
-    <col min="20" max="20" width="16.125" customWidth="1"/>
-    <col min="21" max="21" width="11.625" customWidth="1"/>
-    <col min="22" max="22" width="8.5" customWidth="1"/>
-    <col min="23" max="23" width="10.5" customWidth="1"/>
-    <col min="24" max="24" width="7.5" customWidth="1"/>
-    <col min="25" max="25" width="17.25" customWidth="1"/>
-    <col min="26" max="26" width="9.5" customWidth="1"/>
-    <col min="27" max="28" width="12.75" customWidth="1"/>
-    <col min="29" max="29" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="8.44140625" customWidth="1"/>
+    <col min="23" max="23" width="10.44140625" customWidth="1"/>
+    <col min="24" max="24" width="7.44140625" customWidth="1"/>
+    <col min="25" max="25" width="17.21875" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" customWidth="1"/>
+    <col min="27" max="28" width="12.77734375" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" customWidth="1"/>
     <col min="30" max="30" width="15" customWidth="1"/>
-    <col min="31" max="31" width="10.5" customWidth="1"/>
-    <col min="32" max="32" width="16.125" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" customWidth="1"/>
+    <col min="32" max="32" width="16.109375" customWidth="1"/>
     <col min="33" max="33" width="15" customWidth="1"/>
-    <col min="34" max="34" width="21.5" customWidth="1"/>
-    <col min="35" max="35" width="11.625" customWidth="1"/>
-    <col min="36" max="36" width="20.5" customWidth="1"/>
-    <col min="37" max="37" width="23.75" customWidth="1"/>
-    <col min="38" max="38" width="22.625" customWidth="1"/>
-    <col min="39" max="40" width="12.75" customWidth="1"/>
-    <col min="41" max="41" width="13.875" customWidth="1"/>
-    <col min="42" max="42" width="12.75" customWidth="1"/>
-    <col min="43" max="44" width="13.875" customWidth="1"/>
+    <col min="34" max="34" width="21.44140625" customWidth="1"/>
+    <col min="35" max="35" width="11.6640625" customWidth="1"/>
+    <col min="36" max="36" width="20.44140625" customWidth="1"/>
+    <col min="37" max="37" width="23.77734375" customWidth="1"/>
+    <col min="38" max="38" width="22.6640625" customWidth="1"/>
+    <col min="39" max="40" width="12.77734375" customWidth="1"/>
+    <col min="41" max="41" width="13.88671875" customWidth="1"/>
+    <col min="42" max="42" width="12.77734375" customWidth="1"/>
+    <col min="43" max="44" width="13.88671875" customWidth="1"/>
     <col min="45" max="46" width="15" customWidth="1"/>
-    <col min="47" max="48" width="12.75" customWidth="1"/>
-    <col min="49" max="49" width="13.875" customWidth="1"/>
-    <col min="50" max="50" width="16.125" customWidth="1"/>
-    <col min="51" max="51" width="22.625" customWidth="1"/>
-    <col min="52" max="52" width="19.375" customWidth="1"/>
-    <col min="53" max="53" width="22.625" customWidth="1"/>
+    <col min="47" max="48" width="12.77734375" customWidth="1"/>
+    <col min="49" max="49" width="13.88671875" customWidth="1"/>
+    <col min="50" max="50" width="16.109375" customWidth="1"/>
+    <col min="51" max="51" width="22.6640625" customWidth="1"/>
+    <col min="52" max="52" width="19.33203125" customWidth="1"/>
+    <col min="53" max="53" width="22.6640625" customWidth="1"/>
     <col min="54" max="54" width="15" customWidth="1"/>
-    <col min="55" max="55" width="18.375" customWidth="1"/>
-    <col min="56" max="56" width="17.25" customWidth="1"/>
-    <col min="57" max="58" width="16.125" customWidth="1"/>
-    <col min="59" max="60" width="17.25" customWidth="1"/>
-    <col min="61" max="61" width="16.125" customWidth="1"/>
-    <col min="62" max="62" width="17.25" customWidth="1"/>
-    <col min="63" max="63" width="18.375" customWidth="1"/>
-    <col min="64" max="64" width="24.875" customWidth="1"/>
-    <col min="65" max="65" width="27.125" customWidth="1"/>
-    <col min="66" max="66" width="20.5" customWidth="1"/>
-    <col min="67" max="67" width="16.125" customWidth="1"/>
-    <col min="68" max="68" width="22.625" customWidth="1"/>
-    <col min="69" max="69" width="9.5" customWidth="1"/>
-    <col min="70" max="70" width="22.625" customWidth="1"/>
-    <col min="71" max="71" width="18.375" customWidth="1"/>
-    <col min="72" max="72" width="23.75" customWidth="1"/>
-    <col min="73" max="73" width="19.375" customWidth="1"/>
-    <col min="74" max="74" width="13.875" customWidth="1"/>
-    <col min="75" max="75" width="17.25" customWidth="1"/>
+    <col min="55" max="55" width="18.33203125" customWidth="1"/>
+    <col min="56" max="56" width="17.21875" customWidth="1"/>
+    <col min="57" max="58" width="16.109375" customWidth="1"/>
+    <col min="59" max="60" width="17.21875" customWidth="1"/>
+    <col min="61" max="61" width="16.109375" customWidth="1"/>
+    <col min="62" max="62" width="17.21875" customWidth="1"/>
+    <col min="63" max="63" width="18.33203125" customWidth="1"/>
+    <col min="64" max="64" width="24.88671875" customWidth="1"/>
+    <col min="65" max="65" width="27.109375" customWidth="1"/>
+    <col min="66" max="66" width="20.44140625" customWidth="1"/>
+    <col min="67" max="67" width="16.109375" customWidth="1"/>
+    <col min="68" max="68" width="22.6640625" customWidth="1"/>
+    <col min="69" max="69" width="9.44140625" customWidth="1"/>
+    <col min="70" max="70" width="22.6640625" customWidth="1"/>
+    <col min="71" max="71" width="18.33203125" customWidth="1"/>
+    <col min="72" max="72" width="23.77734375" customWidth="1"/>
+    <col min="73" max="73" width="19.33203125" customWidth="1"/>
+    <col min="74" max="74" width="13.88671875" customWidth="1"/>
+    <col min="75" max="75" width="17.21875" customWidth="1"/>
     <col min="76" max="76" width="15" customWidth="1"/>
-    <col min="77" max="77" width="16.125" customWidth="1"/>
-    <col min="78" max="78" width="18.375" customWidth="1"/>
-    <col min="79" max="79" width="19.375" customWidth="1"/>
+    <col min="77" max="77" width="16.109375" customWidth="1"/>
+    <col min="78" max="78" width="18.33203125" customWidth="1"/>
+    <col min="79" max="79" width="19.33203125" customWidth="1"/>
     <col min="80" max="81" width="26" customWidth="1"/>
-    <col min="82" max="82" width="13.875" customWidth="1"/>
+    <col min="82" max="82" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -10201,7 +10472,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -10458,7 +10729,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
@@ -10715,7 +10986,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
@@ -10972,7 +11243,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
@@ -11229,7 +11500,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>138</v>
       </c>
@@ -11486,7 +11757,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
@@ -11743,32 +12014,32 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11780,59 +12051,60 @@
   <dimension ref="A1:BB34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="18.375" customWidth="1"/>
-    <col min="15" max="15" width="7.5" customWidth="1"/>
-    <col min="16" max="16" width="9.5" customWidth="1"/>
-    <col min="17" max="17" width="11.625" customWidth="1"/>
-    <col min="18" max="18" width="6.5" customWidth="1"/>
-    <col min="19" max="19" width="8.5" customWidth="1"/>
-    <col min="20" max="20" width="16.125" customWidth="1"/>
-    <col min="21" max="22" width="8.5" customWidth="1"/>
-    <col min="23" max="23" width="16.125" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="19.375" customWidth="1"/>
-    <col min="26" max="26" width="7.5" customWidth="1"/>
-    <col min="27" max="27" width="13.875" customWidth="1"/>
-    <col min="28" max="28" width="16.125" customWidth="1"/>
-    <col min="29" max="29" width="12.75" customWidth="1"/>
-    <col min="30" max="30" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="6.44140625" customWidth="1"/>
+    <col min="19" max="19" width="8.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" customWidth="1"/>
+    <col min="21" max="22" width="8.44140625" customWidth="1"/>
+    <col min="23" max="23" width="16.109375" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="19.33203125" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" customWidth="1"/>
+    <col min="28" max="28" width="16.109375" customWidth="1"/>
+    <col min="29" max="29" width="12.77734375" customWidth="1"/>
+    <col min="30" max="30" width="16.109375" customWidth="1"/>
     <col min="31" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="18.375" customWidth="1"/>
-    <col min="34" max="34" width="13.875" customWidth="1"/>
-    <col min="35" max="35" width="18.375" customWidth="1"/>
-    <col min="36" max="36" width="10.5" customWidth="1"/>
-    <col min="37" max="37" width="16.125" customWidth="1"/>
-    <col min="38" max="38" width="12.75" customWidth="1"/>
-    <col min="39" max="39" width="13.875" customWidth="1"/>
-    <col min="40" max="40" width="12.75" customWidth="1"/>
-    <col min="41" max="41" width="5.5" customWidth="1"/>
-    <col min="42" max="42" width="17.25" customWidth="1"/>
-    <col min="43" max="44" width="20.5" customWidth="1"/>
-    <col min="45" max="45" width="10.5" customWidth="1"/>
-    <col min="46" max="46" width="13.875" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" customWidth="1"/>
+    <col min="34" max="34" width="13.88671875" customWidth="1"/>
+    <col min="35" max="35" width="18.33203125" customWidth="1"/>
+    <col min="36" max="36" width="10.44140625" customWidth="1"/>
+    <col min="37" max="37" width="16.109375" customWidth="1"/>
+    <col min="38" max="38" width="12.77734375" customWidth="1"/>
+    <col min="39" max="39" width="13.88671875" customWidth="1"/>
+    <col min="40" max="40" width="12.77734375" customWidth="1"/>
+    <col min="41" max="41" width="5.44140625" customWidth="1"/>
+    <col min="42" max="42" width="17.21875" customWidth="1"/>
+    <col min="43" max="44" width="20.44140625" customWidth="1"/>
+    <col min="45" max="45" width="10.44140625" customWidth="1"/>
+    <col min="46" max="46" width="13.88671875" customWidth="1"/>
     <col min="47" max="47" width="15" customWidth="1"/>
-    <col min="48" max="48" width="20.5" customWidth="1"/>
-    <col min="49" max="49" width="8.5" customWidth="1"/>
-    <col min="50" max="50" width="190.5" customWidth="1"/>
+    <col min="48" max="48" width="20.44140625" customWidth="1"/>
+    <col min="49" max="49" width="8.44140625" customWidth="1"/>
+    <col min="50" max="50" width="190.44140625" customWidth="1"/>
+    <col min="51" max="51" width="190.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>284</v>
       </c>
@@ -11990,21 +12262,21 @@
         <v>132</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>577</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>310</v>
@@ -12036,8 +12308,8 @@
       <c r="M2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>188</v>
+      <c r="N2" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>312</v>
@@ -12058,7 +12330,7 @@
         <v>148</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>146</v>
@@ -12097,7 +12369,7 @@
         <v>154</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>152</v>
@@ -12127,15 +12399,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>318</v>
@@ -12167,8 +12439,8 @@
       <c r="M3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>193</v>
+      <c r="N3" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>319</v>
@@ -12189,7 +12461,7 @@
         <v>148</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>146</v>
@@ -12228,7 +12500,7 @@
         <v>154</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>152</v>
@@ -12258,15 +12530,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>310</v>
@@ -12298,8 +12570,8 @@
       <c r="M4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>194</v>
+      <c r="N4" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>312</v>
@@ -12320,7 +12592,7 @@
         <v>148</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>146</v>
@@ -12359,7 +12631,7 @@
         <v>154</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>152</v>
@@ -12389,15 +12661,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>318</v>
@@ -12429,8 +12701,8 @@
       <c r="M5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>197</v>
+      <c r="N5" s="2" t="s">
+        <v>602</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>319</v>
@@ -12451,7 +12723,7 @@
         <v>148</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>146</v>
@@ -12490,7 +12762,7 @@
         <v>154</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>152</v>
@@ -12520,15 +12792,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>310</v>
@@ -12560,8 +12832,8 @@
       <c r="M6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>198</v>
+      <c r="N6" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>312</v>
@@ -12582,7 +12854,7 @@
         <v>148</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>146</v>
@@ -12621,7 +12893,7 @@
         <v>154</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>152</v>
@@ -12651,15 +12923,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>318</v>
@@ -12691,8 +12963,8 @@
       <c r="M7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>199</v>
+      <c r="N7" s="2" t="s">
+        <v>604</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>319</v>
@@ -12713,7 +12985,7 @@
         <v>148</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>146</v>
@@ -12752,7 +13024,7 @@
         <v>154</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>152</v>
@@ -12782,15 +13054,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>324</v>
@@ -12822,8 +13094,8 @@
       <c r="M8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>200</v>
+      <c r="N8" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>312</v>
@@ -12844,7 +13116,7 @@
         <v>148</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>146</v>
@@ -12883,7 +13155,7 @@
         <v>154</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>152</v>
@@ -12913,15 +13185,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>326</v>
@@ -12953,8 +13225,8 @@
       <c r="M9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>201</v>
+      <c r="N9" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>319</v>
@@ -12975,7 +13247,7 @@
         <v>148</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>146</v>
@@ -13014,7 +13286,7 @@
         <v>154</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>152</v>
@@ -13044,15 +13316,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>324</v>
@@ -13084,8 +13356,8 @@
       <c r="M10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>202</v>
+      <c r="N10" s="2" t="s">
+        <v>588</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>312</v>
@@ -13106,7 +13378,7 @@
         <v>148</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>146</v>
@@ -13145,7 +13417,7 @@
         <v>154</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>152</v>
@@ -13175,15 +13447,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>326</v>
@@ -13215,8 +13487,8 @@
       <c r="M11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>203</v>
+      <c r="N11" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>319</v>
@@ -13237,7 +13509,7 @@
         <v>148</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>146</v>
@@ -13276,7 +13548,7 @@
         <v>154</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>152</v>
@@ -13306,15 +13578,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>324</v>
@@ -13346,8 +13618,8 @@
       <c r="M12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>139</v>
+      <c r="N12" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>312</v>
@@ -13368,7 +13640,7 @@
         <v>148</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>146</v>
@@ -13407,7 +13679,7 @@
         <v>154</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>152</v>
@@ -13437,15 +13709,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>326</v>
@@ -13477,8 +13749,8 @@
       <c r="M13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>180</v>
+      <c r="N13" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>319</v>
@@ -13499,7 +13771,7 @@
         <v>148</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>146</v>
@@ -13538,7 +13810,7 @@
         <v>154</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>152</v>
@@ -13568,15 +13840,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>329</v>
@@ -13608,8 +13880,8 @@
       <c r="M14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>185</v>
+      <c r="N14" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>312</v>
@@ -13630,7 +13902,7 @@
         <v>148</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>146</v>
@@ -13669,7 +13941,7 @@
         <v>154</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>152</v>
@@ -13699,15 +13971,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>332</v>
@@ -13739,8 +14011,8 @@
       <c r="M15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>187</v>
+      <c r="N15" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>319</v>
@@ -13761,7 +14033,7 @@
         <v>148</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>146</v>
@@ -13800,7 +14072,7 @@
         <v>154</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>152</v>
@@ -13830,25 +14102,25 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:AX15"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13861,59 +14133,59 @@
   <dimension ref="A1:BB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="18.375" customWidth="1"/>
-    <col min="15" max="15" width="7.5" customWidth="1"/>
-    <col min="16" max="16" width="9.5" customWidth="1"/>
-    <col min="17" max="17" width="11.625" customWidth="1"/>
-    <col min="18" max="18" width="6.5" customWidth="1"/>
-    <col min="19" max="19" width="8.5" customWidth="1"/>
-    <col min="20" max="20" width="16.125" customWidth="1"/>
-    <col min="21" max="22" width="8.5" customWidth="1"/>
-    <col min="23" max="23" width="16.125" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="19.375" customWidth="1"/>
-    <col min="26" max="26" width="7.5" customWidth="1"/>
-    <col min="27" max="27" width="13.875" customWidth="1"/>
-    <col min="28" max="28" width="16.125" customWidth="1"/>
-    <col min="29" max="29" width="12.75" customWidth="1"/>
-    <col min="30" max="30" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="6.44140625" customWidth="1"/>
+    <col min="19" max="19" width="8.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" customWidth="1"/>
+    <col min="21" max="22" width="8.44140625" customWidth="1"/>
+    <col min="23" max="23" width="16.109375" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="19.33203125" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" customWidth="1"/>
+    <col min="28" max="28" width="16.109375" customWidth="1"/>
+    <col min="29" max="29" width="12.77734375" customWidth="1"/>
+    <col min="30" max="30" width="16.109375" customWidth="1"/>
     <col min="31" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="18.375" customWidth="1"/>
-    <col min="34" max="34" width="13.875" customWidth="1"/>
-    <col min="35" max="35" width="18.375" customWidth="1"/>
-    <col min="36" max="36" width="10.5" customWidth="1"/>
-    <col min="37" max="37" width="16.125" customWidth="1"/>
-    <col min="38" max="38" width="12.75" customWidth="1"/>
-    <col min="39" max="39" width="13.875" customWidth="1"/>
-    <col min="40" max="40" width="12.75" customWidth="1"/>
-    <col min="41" max="41" width="5.5" customWidth="1"/>
-    <col min="42" max="42" width="17.25" customWidth="1"/>
-    <col min="43" max="44" width="20.5" customWidth="1"/>
-    <col min="45" max="45" width="10.5" customWidth="1"/>
-    <col min="46" max="46" width="13.875" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" customWidth="1"/>
+    <col min="34" max="34" width="13.88671875" customWidth="1"/>
+    <col min="35" max="35" width="18.33203125" customWidth="1"/>
+    <col min="36" max="36" width="10.44140625" customWidth="1"/>
+    <col min="37" max="37" width="16.109375" customWidth="1"/>
+    <col min="38" max="38" width="12.77734375" customWidth="1"/>
+    <col min="39" max="39" width="13.88671875" customWidth="1"/>
+    <col min="40" max="40" width="12.77734375" customWidth="1"/>
+    <col min="41" max="41" width="5.44140625" customWidth="1"/>
+    <col min="42" max="42" width="17.21875" customWidth="1"/>
+    <col min="43" max="44" width="20.44140625" customWidth="1"/>
+    <col min="45" max="45" width="10.44140625" customWidth="1"/>
+    <col min="46" max="46" width="13.88671875" customWidth="1"/>
     <col min="47" max="47" width="15" customWidth="1"/>
-    <col min="48" max="48" width="20.5" customWidth="1"/>
-    <col min="49" max="49" width="8.5" customWidth="1"/>
-    <col min="50" max="50" width="190.5" customWidth="1"/>
+    <col min="48" max="48" width="20.44140625" customWidth="1"/>
+    <col min="49" max="49" width="8.44140625" customWidth="1"/>
+    <col min="50" max="50" width="190.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>284</v>
       </c>
@@ -14071,21 +14343,21 @@
         <v>132</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>577</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>310</v>
@@ -14117,8 +14389,8 @@
       <c r="M2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>188</v>
+      <c r="N2" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>312</v>
@@ -14139,7 +14411,7 @@
         <v>148</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>146</v>
@@ -14178,7 +14450,7 @@
         <v>154</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>152</v>
@@ -14208,15 +14480,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>318</v>
@@ -14248,8 +14520,8 @@
       <c r="M3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>193</v>
+      <c r="N3" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>319</v>
@@ -14270,7 +14542,7 @@
         <v>148</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>146</v>
@@ -14309,7 +14581,7 @@
         <v>154</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>152</v>
@@ -14339,15 +14611,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>310</v>
@@ -14379,8 +14651,8 @@
       <c r="M4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>194</v>
+      <c r="N4" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>312</v>
@@ -14401,7 +14673,7 @@
         <v>148</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>146</v>
@@ -14440,7 +14712,7 @@
         <v>154</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>152</v>
@@ -14470,15 +14742,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>318</v>
@@ -14510,8 +14782,8 @@
       <c r="M5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>197</v>
+      <c r="N5" s="2" t="s">
+        <v>614</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>319</v>
@@ -14532,7 +14804,7 @@
         <v>148</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>146</v>
@@ -14571,7 +14843,7 @@
         <v>154</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>152</v>
@@ -14601,15 +14873,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>310</v>
@@ -14641,8 +14913,8 @@
       <c r="M6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>198</v>
+      <c r="N6" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>312</v>
@@ -14663,7 +14935,7 @@
         <v>148</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>146</v>
@@ -14702,7 +14974,7 @@
         <v>154</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>152</v>
@@ -14732,15 +15004,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>318</v>
@@ -14772,8 +15044,8 @@
       <c r="M7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>199</v>
+      <c r="N7" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>319</v>
@@ -14794,7 +15066,7 @@
         <v>148</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>146</v>
@@ -14833,7 +15105,7 @@
         <v>154</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>152</v>
@@ -14863,15 +15135,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>324</v>
@@ -14903,8 +15175,8 @@
       <c r="M8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>200</v>
+      <c r="N8" s="2" t="s">
+        <v>616</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>312</v>
@@ -14925,7 +15197,7 @@
         <v>148</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>146</v>
@@ -14964,7 +15236,7 @@
         <v>154</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>152</v>
@@ -14994,15 +15266,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>326</v>
@@ -15034,8 +15306,8 @@
       <c r="M9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>201</v>
+      <c r="N9" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>319</v>
@@ -15056,7 +15328,7 @@
         <v>148</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>146</v>
@@ -15095,7 +15367,7 @@
         <v>154</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>152</v>
@@ -15125,15 +15397,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>324</v>
@@ -15165,8 +15437,8 @@
       <c r="M10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>202</v>
+      <c r="N10" s="2" t="s">
+        <v>618</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>312</v>
@@ -15187,7 +15459,7 @@
         <v>148</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>146</v>
@@ -15226,7 +15498,7 @@
         <v>154</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>152</v>
@@ -15256,15 +15528,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>326</v>
@@ -15296,8 +15568,8 @@
       <c r="M11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>203</v>
+      <c r="N11" s="2" t="s">
+        <v>619</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>319</v>
@@ -15318,7 +15590,7 @@
         <v>148</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>146</v>
@@ -15357,7 +15629,7 @@
         <v>154</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>152</v>
@@ -15387,15 +15659,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>324</v>
@@ -15427,8 +15699,8 @@
       <c r="M12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>139</v>
+      <c r="N12" s="2" t="s">
+        <v>589</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>312</v>
@@ -15449,7 +15721,7 @@
         <v>148</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>146</v>
@@ -15488,7 +15760,7 @@
         <v>154</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>152</v>
@@ -15518,15 +15790,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>326</v>
@@ -15558,8 +15830,8 @@
       <c r="M13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>180</v>
+      <c r="N13" s="2" t="s">
+        <v>620</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>319</v>
@@ -15580,7 +15852,7 @@
         <v>148</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>146</v>
@@ -15619,7 +15891,7 @@
         <v>154</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>152</v>
@@ -15649,15 +15921,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>329</v>
@@ -15689,8 +15961,8 @@
       <c r="M14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>185</v>
+      <c r="N14" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>312</v>
@@ -15711,7 +15983,7 @@
         <v>148</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>146</v>
@@ -15750,7 +16022,7 @@
         <v>154</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>152</v>
@@ -15780,15 +16052,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>332</v>
@@ -15820,8 +16092,8 @@
       <c r="M15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>187</v>
+      <c r="N15" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>319</v>
@@ -15842,7 +16114,7 @@
         <v>148</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>146</v>
@@ -15881,7 +16153,7 @@
         <v>154</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>152</v>
@@ -15911,24 +16183,24 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:AX15"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15940,32 +16212,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="9" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="9.5" customWidth="1"/>
-    <col min="14" max="14" width="7.5" customWidth="1"/>
-    <col min="16" max="16" width="9.5" customWidth="1"/>
-    <col min="18" max="18" width="16.125" customWidth="1"/>
-    <col min="19" max="19" width="6.5" customWidth="1"/>
-    <col min="20" max="20" width="10.5" customWidth="1"/>
-    <col min="23" max="23" width="20.5" customWidth="1"/>
-    <col min="25" max="25" width="15.125" customWidth="1"/>
+    <col min="1" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" customWidth="1"/>
+    <col min="23" max="23" width="20.44140625" customWidth="1"/>
+    <col min="25" max="25" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>333</v>
       </c>
@@ -16045,7 +16317,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
@@ -16055,8 +16327,8 @@
       <c r="C2" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>188</v>
+      <c r="D2" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>140</v>
@@ -16113,7 +16385,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
@@ -16123,8 +16395,8 @@
       <c r="C3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>193</v>
+      <c r="D3" s="2" t="s">
+        <v>623</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>181</v>
@@ -16181,7 +16453,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
@@ -16191,8 +16463,8 @@
       <c r="C4" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>198</v>
+      <c r="D4" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>140</v>
@@ -16249,7 +16521,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>137</v>
       </c>
@@ -16259,8 +16531,8 @@
       <c r="C5" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>199</v>
+      <c r="D5" s="2" t="s">
+        <v>624</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>181</v>
@@ -16317,7 +16589,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -16327,8 +16599,8 @@
       <c r="C6" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>194</v>
+      <c r="D6" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>140</v>
@@ -16385,7 +16657,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>137</v>
       </c>
@@ -16395,8 +16667,8 @@
       <c r="C7" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>197</v>
+      <c r="D7" s="2" t="s">
+        <v>625</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>181</v>
@@ -16453,7 +16725,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>137</v>
       </c>
@@ -16463,8 +16735,8 @@
       <c r="C8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>200</v>
+      <c r="D8" s="2" t="s">
+        <v>626</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>140</v>
@@ -16521,7 +16793,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>137</v>
       </c>
@@ -16531,8 +16803,8 @@
       <c r="C9" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>201</v>
+      <c r="D9" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>181</v>
@@ -16589,7 +16861,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>137</v>
       </c>
@@ -16599,8 +16871,8 @@
       <c r="C10" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>202</v>
+      <c r="D10" s="2" t="s">
+        <v>588</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>140</v>
@@ -16657,7 +16929,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>137</v>
       </c>
@@ -16667,8 +16939,8 @@
       <c r="C11" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>203</v>
+      <c r="D11" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>181</v>
@@ -16725,7 +16997,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -16735,8 +17007,8 @@
       <c r="C12" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>139</v>
+      <c r="D12" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>140</v>
@@ -16793,7 +17065,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>137</v>
       </c>
@@ -16803,8 +17075,8 @@
       <c r="C13" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>180</v>
+      <c r="D13" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>181</v>
@@ -16861,7 +17133,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -16871,8 +17143,8 @@
       <c r="C14" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>185</v>
+      <c r="D14" s="2" t="s">
+        <v>630</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>140</v>
@@ -16929,7 +17201,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
@@ -16939,8 +17211,8 @@
       <c r="C15" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>187</v>
+      <c r="D15" s="2" t="s">
+        <v>631</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>181</v>
@@ -16997,74 +17269,74 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:Z15"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17080,9 +17352,9 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -17282,7 +17554,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>384</v>
       </c>
@@ -17443,7 +17715,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>384</v>
       </c>
@@ -17604,7 +17876,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>384</v>
       </c>
@@ -17750,7 +18022,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>384</v>
       </c>
@@ -17911,7 +18183,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>384</v>
       </c>
@@ -18072,7 +18344,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>384</v>
       </c>
@@ -18218,7 +18490,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>384</v>
       </c>
@@ -18379,7 +18651,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>384</v>
       </c>
@@ -18540,7 +18812,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>384</v>
       </c>
@@ -18686,7 +18958,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>384</v>
       </c>
@@ -18847,7 +19119,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>384</v>
       </c>
@@ -19008,7 +19280,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>384</v>
       </c>
@@ -19154,7 +19426,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>384</v>
       </c>
@@ -19291,7 +19563,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>384</v>
       </c>
@@ -19452,7 +19724,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>384</v>
       </c>
@@ -19613,7 +19885,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>384</v>
       </c>
@@ -19759,7 +20031,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>384</v>
       </c>
@@ -19896,7 +20168,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>384</v>
       </c>
@@ -20057,7 +20329,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>384</v>
       </c>
@@ -20218,7 +20490,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>384</v>
       </c>
@@ -20364,7 +20636,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>384</v>
       </c>
@@ -20525,7 +20797,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="23" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>384</v>
       </c>
@@ -20686,7 +20958,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="24" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>384</v>
       </c>
@@ -20832,7 +21104,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="25" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>384</v>
       </c>
@@ -20969,7 +21241,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>384</v>
       </c>
@@ -21127,7 +21399,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>384</v>
       </c>
@@ -21285,7 +21557,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>384</v>
       </c>
@@ -21443,7 +21715,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>384</v>
       </c>
@@ -21601,7 +21873,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>384</v>
       </c>
@@ -21759,7 +22031,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>384</v>
       </c>
@@ -21917,7 +22189,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>384</v>
       </c>
@@ -22075,7 +22347,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>384</v>
       </c>
@@ -22233,7 +22505,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>384</v>
       </c>
@@ -22391,7 +22663,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>384</v>
       </c>
@@ -22549,7 +22821,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>384</v>
       </c>
@@ -22707,7 +22979,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>384</v>
       </c>
@@ -22865,7 +23137,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>384</v>
       </c>
@@ -23023,7 +23295,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>384</v>
       </c>
@@ -23181,209 +23453,209 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:BO39"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23399,39 +23671,39 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="13" width="19.5" customWidth="1"/>
-    <col min="14" max="14" width="9.5" customWidth="1"/>
-    <col min="15" max="15" width="8.75" customWidth="1"/>
-    <col min="16" max="17" width="7.75" customWidth="1"/>
-    <col min="18" max="18" width="8.5" customWidth="1"/>
-    <col min="19" max="20" width="9.75" customWidth="1"/>
-    <col min="21" max="22" width="8.75" customWidth="1"/>
-    <col min="23" max="24" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" customWidth="1"/>
+    <col min="16" max="17" width="7.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" customWidth="1"/>
+    <col min="19" max="20" width="9.77734375" customWidth="1"/>
+    <col min="21" max="22" width="8.77734375" customWidth="1"/>
+    <col min="23" max="24" width="7.77734375" customWidth="1"/>
     <col min="25" max="25" width="15" customWidth="1"/>
-    <col min="26" max="26" width="92.875" customWidth="1"/>
-    <col min="27" max="27" width="9.75" customWidth="1"/>
-    <col min="28" max="28" width="8.75" customWidth="1"/>
-    <col min="29" max="30" width="12.75" customWidth="1"/>
-    <col min="31" max="31" width="11.75" customWidth="1"/>
-    <col min="32" max="33" width="8.75" customWidth="1"/>
-    <col min="34" max="34" width="11.75" customWidth="1"/>
-    <col min="35" max="35" width="16.125" customWidth="1"/>
-    <col min="36" max="36" width="10.5" customWidth="1"/>
-    <col min="37" max="37" width="13.875" customWidth="1"/>
+    <col min="26" max="26" width="92.88671875" customWidth="1"/>
+    <col min="27" max="27" width="9.77734375" customWidth="1"/>
+    <col min="28" max="28" width="8.77734375" customWidth="1"/>
+    <col min="29" max="30" width="12.77734375" customWidth="1"/>
+    <col min="31" max="31" width="11.77734375" customWidth="1"/>
+    <col min="32" max="33" width="8.77734375" customWidth="1"/>
+    <col min="34" max="34" width="11.77734375" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" customWidth="1"/>
+    <col min="36" max="36" width="10.44140625" customWidth="1"/>
+    <col min="37" max="37" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -23544,7 +23816,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
@@ -23606,7 +23878,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>168</v>
       </c>
@@ -23668,7 +23940,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>168</v>
       </c>
@@ -23730,7 +24002,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>168</v>
       </c>
@@ -23792,7 +24064,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -23854,7 +24126,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -23916,7 +24188,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>168</v>
       </c>
@@ -23978,7 +24250,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>168</v>
       </c>
@@ -24040,7 +24312,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>168</v>
       </c>
@@ -24102,7 +24374,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>168</v>
       </c>
@@ -24164,7 +24436,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>168</v>
       </c>
@@ -24226,7 +24498,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>168</v>
       </c>
@@ -24288,7 +24560,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -24350,7 +24622,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>168</v>
       </c>
@@ -24412,22 +24684,22 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:AK15"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/用例数据/深A/协议回购/T日/测试结果.xlsx
+++ b/用例数据/深A/协议回购/T日/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15372" windowHeight="9372" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="9375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog2020" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7085" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7113" uniqueCount="634">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -1980,6 +1980,13 @@
   </si>
   <si>
     <t>122222235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XYHY</t>
+  </si>
+  <si>
+    <t>XYHY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2369,134 +2376,134 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.44140625" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" customWidth="1"/>
-    <col min="19" max="19" width="10.44140625" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="16.109375" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" customWidth="1"/>
-    <col min="24" max="24" width="10.44140625" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" customWidth="1"/>
-    <col min="26" max="26" width="8.44140625" customWidth="1"/>
-    <col min="27" max="27" width="9.44140625" customWidth="1"/>
-    <col min="28" max="28" width="22.6640625" customWidth="1"/>
-    <col min="29" max="29" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" customWidth="1"/>
+    <col min="18" max="18" width="7.5" customWidth="1"/>
+    <col min="19" max="19" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="9.5" customWidth="1"/>
+    <col min="21" max="21" width="11.625" customWidth="1"/>
+    <col min="22" max="22" width="16.125" customWidth="1"/>
+    <col min="23" max="23" width="13.875" customWidth="1"/>
+    <col min="24" max="24" width="10.5" customWidth="1"/>
+    <col min="25" max="25" width="13.875" customWidth="1"/>
+    <col min="26" max="26" width="8.5" customWidth="1"/>
+    <col min="27" max="27" width="9.5" customWidth="1"/>
+    <col min="28" max="28" width="22.625" customWidth="1"/>
+    <col min="29" max="29" width="10.5" customWidth="1"/>
     <col min="30" max="30" width="15" customWidth="1"/>
-    <col min="31" max="32" width="13.88671875" customWidth="1"/>
-    <col min="33" max="34" width="12.77734375" customWidth="1"/>
-    <col min="35" max="35" width="9.44140625" customWidth="1"/>
-    <col min="36" max="36" width="12.77734375" customWidth="1"/>
-    <col min="37" max="37" width="10.44140625" customWidth="1"/>
-    <col min="38" max="38" width="13.88671875" customWidth="1"/>
-    <col min="39" max="39" width="11.6640625" customWidth="1"/>
-    <col min="40" max="41" width="9.44140625" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" customWidth="1"/>
-    <col min="43" max="43" width="16.109375" customWidth="1"/>
-    <col min="44" max="44" width="9.44140625" customWidth="1"/>
-    <col min="45" max="45" width="12.77734375" customWidth="1"/>
-    <col min="46" max="46" width="13.88671875" customWidth="1"/>
-    <col min="47" max="47" width="8.44140625" customWidth="1"/>
-    <col min="48" max="48" width="17.21875" customWidth="1"/>
-    <col min="49" max="49" width="11.6640625" customWidth="1"/>
-    <col min="50" max="50" width="8.44140625" customWidth="1"/>
-    <col min="51" max="51" width="9.44140625" customWidth="1"/>
-    <col min="52" max="52" width="12.77734375" customWidth="1"/>
-    <col min="53" max="53" width="16.109375" customWidth="1"/>
-    <col min="54" max="55" width="12.77734375" customWidth="1"/>
-    <col min="56" max="56" width="16.109375" customWidth="1"/>
+    <col min="31" max="32" width="13.875" customWidth="1"/>
+    <col min="33" max="34" width="12.75" customWidth="1"/>
+    <col min="35" max="35" width="9.5" customWidth="1"/>
+    <col min="36" max="36" width="12.75" customWidth="1"/>
+    <col min="37" max="37" width="10.5" customWidth="1"/>
+    <col min="38" max="38" width="13.875" customWidth="1"/>
+    <col min="39" max="39" width="11.625" customWidth="1"/>
+    <col min="40" max="41" width="9.5" customWidth="1"/>
+    <col min="42" max="42" width="13.875" customWidth="1"/>
+    <col min="43" max="43" width="16.125" customWidth="1"/>
+    <col min="44" max="44" width="9.5" customWidth="1"/>
+    <col min="45" max="45" width="12.75" customWidth="1"/>
+    <col min="46" max="46" width="13.875" customWidth="1"/>
+    <col min="47" max="47" width="8.5" customWidth="1"/>
+    <col min="48" max="48" width="17.25" customWidth="1"/>
+    <col min="49" max="49" width="11.625" customWidth="1"/>
+    <col min="50" max="50" width="8.5" customWidth="1"/>
+    <col min="51" max="51" width="9.5" customWidth="1"/>
+    <col min="52" max="52" width="12.75" customWidth="1"/>
+    <col min="53" max="53" width="16.125" customWidth="1"/>
+    <col min="54" max="55" width="12.75" customWidth="1"/>
+    <col min="56" max="56" width="16.125" customWidth="1"/>
     <col min="57" max="57" width="15" customWidth="1"/>
-    <col min="58" max="58" width="18.33203125" customWidth="1"/>
-    <col min="59" max="59" width="17.21875" customWidth="1"/>
-    <col min="60" max="60" width="13.88671875" customWidth="1"/>
-    <col min="61" max="61" width="11.6640625" customWidth="1"/>
-    <col min="62" max="62" width="8.44140625" customWidth="1"/>
-    <col min="63" max="63" width="13.88671875" customWidth="1"/>
-    <col min="64" max="64" width="9.44140625" customWidth="1"/>
-    <col min="65" max="65" width="17.21875" customWidth="1"/>
-    <col min="66" max="66" width="16.109375" customWidth="1"/>
-    <col min="67" max="67" width="11.6640625" customWidth="1"/>
-    <col min="68" max="68" width="12.77734375" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" customWidth="1"/>
+    <col min="58" max="58" width="18.375" customWidth="1"/>
+    <col min="59" max="59" width="17.25" customWidth="1"/>
+    <col min="60" max="60" width="13.875" customWidth="1"/>
+    <col min="61" max="61" width="11.625" customWidth="1"/>
+    <col min="62" max="62" width="8.5" customWidth="1"/>
+    <col min="63" max="63" width="13.875" customWidth="1"/>
+    <col min="64" max="64" width="9.5" customWidth="1"/>
+    <col min="65" max="65" width="17.25" customWidth="1"/>
+    <col min="66" max="66" width="16.125" customWidth="1"/>
+    <col min="67" max="67" width="11.625" customWidth="1"/>
+    <col min="68" max="68" width="12.75" customWidth="1"/>
+    <col min="69" max="69" width="11.625" customWidth="1"/>
     <col min="70" max="70" width="15" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" customWidth="1"/>
-    <col min="72" max="72" width="12.77734375" customWidth="1"/>
-    <col min="73" max="73" width="17.21875" customWidth="1"/>
-    <col min="74" max="74" width="20.44140625" customWidth="1"/>
-    <col min="75" max="75" width="16.109375" customWidth="1"/>
-    <col min="76" max="76" width="12.77734375" customWidth="1"/>
-    <col min="77" max="77" width="11.6640625" customWidth="1"/>
-    <col min="78" max="78" width="10.44140625" customWidth="1"/>
-    <col min="79" max="79" width="11.6640625" customWidth="1"/>
-    <col min="80" max="81" width="7.44140625" customWidth="1"/>
-    <col min="82" max="83" width="17.21875" customWidth="1"/>
-    <col min="84" max="84" width="16.109375" customWidth="1"/>
-    <col min="85" max="85" width="11.6640625" customWidth="1"/>
-    <col min="86" max="86" width="13.88671875" customWidth="1"/>
-    <col min="87" max="87" width="16.109375" customWidth="1"/>
-    <col min="88" max="88" width="10.44140625" customWidth="1"/>
-    <col min="89" max="89" width="11.6640625" customWidth="1"/>
-    <col min="90" max="90" width="19.33203125" customWidth="1"/>
-    <col min="91" max="91" width="16.109375" customWidth="1"/>
-    <col min="92" max="92" width="22.6640625" customWidth="1"/>
-    <col min="93" max="93" width="7.44140625" customWidth="1"/>
-    <col min="94" max="94" width="18.33203125" customWidth="1"/>
-    <col min="95" max="95" width="10.44140625" customWidth="1"/>
-    <col min="96" max="96" width="13.88671875" customWidth="1"/>
-    <col min="97" max="97" width="12.77734375" customWidth="1"/>
-    <col min="98" max="98" width="16.109375" customWidth="1"/>
-    <col min="99" max="100" width="12.77734375" customWidth="1"/>
-    <col min="101" max="101" width="9.44140625" customWidth="1"/>
-    <col min="102" max="102" width="16.109375" customWidth="1"/>
-    <col min="103" max="103" width="13.88671875" customWidth="1"/>
-    <col min="104" max="104" width="11.6640625" customWidth="1"/>
+    <col min="71" max="71" width="11.625" customWidth="1"/>
+    <col min="72" max="72" width="12.75" customWidth="1"/>
+    <col min="73" max="73" width="17.25" customWidth="1"/>
+    <col min="74" max="74" width="20.5" customWidth="1"/>
+    <col min="75" max="75" width="16.125" customWidth="1"/>
+    <col min="76" max="76" width="12.75" customWidth="1"/>
+    <col min="77" max="77" width="11.625" customWidth="1"/>
+    <col min="78" max="78" width="10.5" customWidth="1"/>
+    <col min="79" max="79" width="11.625" customWidth="1"/>
+    <col min="80" max="81" width="7.5" customWidth="1"/>
+    <col min="82" max="83" width="17.25" customWidth="1"/>
+    <col min="84" max="84" width="16.125" customWidth="1"/>
+    <col min="85" max="85" width="11.625" customWidth="1"/>
+    <col min="86" max="86" width="13.875" customWidth="1"/>
+    <col min="87" max="87" width="16.125" customWidth="1"/>
+    <col min="88" max="88" width="10.5" customWidth="1"/>
+    <col min="89" max="89" width="11.625" customWidth="1"/>
+    <col min="90" max="90" width="19.375" customWidth="1"/>
+    <col min="91" max="91" width="16.125" customWidth="1"/>
+    <col min="92" max="92" width="22.625" customWidth="1"/>
+    <col min="93" max="93" width="7.5" customWidth="1"/>
+    <col min="94" max="94" width="18.375" customWidth="1"/>
+    <col min="95" max="95" width="10.5" customWidth="1"/>
+    <col min="96" max="96" width="13.875" customWidth="1"/>
+    <col min="97" max="97" width="12.75" customWidth="1"/>
+    <col min="98" max="98" width="16.125" customWidth="1"/>
+    <col min="99" max="100" width="12.75" customWidth="1"/>
+    <col min="101" max="101" width="9.5" customWidth="1"/>
+    <col min="102" max="102" width="16.125" customWidth="1"/>
+    <col min="103" max="103" width="13.875" customWidth="1"/>
+    <col min="104" max="104" width="11.625" customWidth="1"/>
     <col min="105" max="106" width="15" customWidth="1"/>
-    <col min="107" max="107" width="9.44140625" customWidth="1"/>
-    <col min="108" max="108" width="12.77734375" customWidth="1"/>
-    <col min="109" max="109" width="16.109375" customWidth="1"/>
+    <col min="107" max="107" width="9.5" customWidth="1"/>
+    <col min="108" max="108" width="12.75" customWidth="1"/>
+    <col min="109" max="109" width="16.125" customWidth="1"/>
     <col min="110" max="110" width="15" customWidth="1"/>
-    <col min="111" max="111" width="17.21875" customWidth="1"/>
-    <col min="112" max="112" width="9.44140625" customWidth="1"/>
-    <col min="113" max="113" width="19.33203125" customWidth="1"/>
-    <col min="114" max="114" width="16.109375" customWidth="1"/>
-    <col min="115" max="115" width="20.44140625" customWidth="1"/>
-    <col min="116" max="116" width="23.77734375" customWidth="1"/>
-    <col min="117" max="117" width="16.109375" customWidth="1"/>
-    <col min="118" max="118" width="17.21875" customWidth="1"/>
-    <col min="119" max="119" width="21.44140625" customWidth="1"/>
-    <col min="120" max="121" width="20.44140625" customWidth="1"/>
-    <col min="122" max="122" width="19.33203125" customWidth="1"/>
-    <col min="123" max="123" width="17.21875" customWidth="1"/>
-    <col min="124" max="124" width="20.44140625" customWidth="1"/>
-    <col min="125" max="125" width="18.33203125" customWidth="1"/>
-    <col min="126" max="126" width="8.44140625" customWidth="1"/>
+    <col min="111" max="111" width="17.25" customWidth="1"/>
+    <col min="112" max="112" width="9.5" customWidth="1"/>
+    <col min="113" max="113" width="19.375" customWidth="1"/>
+    <col min="114" max="114" width="16.125" customWidth="1"/>
+    <col min="115" max="115" width="20.5" customWidth="1"/>
+    <col min="116" max="116" width="23.75" customWidth="1"/>
+    <col min="117" max="117" width="16.125" customWidth="1"/>
+    <col min="118" max="118" width="17.25" customWidth="1"/>
+    <col min="119" max="119" width="21.5" customWidth="1"/>
+    <col min="120" max="121" width="20.5" customWidth="1"/>
+    <col min="122" max="122" width="19.375" customWidth="1"/>
+    <col min="123" max="123" width="17.25" customWidth="1"/>
+    <col min="124" max="124" width="20.5" customWidth="1"/>
+    <col min="125" max="125" width="18.375" customWidth="1"/>
+    <col min="126" max="126" width="8.5" customWidth="1"/>
     <col min="127" max="127" width="15" customWidth="1"/>
-    <col min="128" max="128" width="12.77734375" customWidth="1"/>
-    <col min="129" max="129" width="20.44140625" customWidth="1"/>
-    <col min="130" max="130" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="11.6640625" customWidth="1"/>
+    <col min="128" max="128" width="12.75" customWidth="1"/>
+    <col min="129" max="129" width="20.5" customWidth="1"/>
+    <col min="130" max="130" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="11.625" customWidth="1"/>
     <col min="132" max="132" width="15" customWidth="1"/>
-    <col min="133" max="133" width="16.109375" customWidth="1"/>
+    <col min="133" max="133" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2915,7 +2922,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>518</v>
       </c>
@@ -3257,7 +3264,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>527</v>
       </c>
@@ -3602,7 +3609,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>529</v>
       </c>
@@ -3944,7 +3951,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>532</v>
       </c>
@@ -4289,7 +4296,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>534</v>
       </c>
@@ -4631,7 +4638,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>537</v>
       </c>
@@ -4976,7 +4983,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>539</v>
       </c>
@@ -5318,7 +5325,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>542</v>
       </c>
@@ -5663,7 +5670,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>544</v>
       </c>
@@ -6005,7 +6012,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>547</v>
       </c>
@@ -6350,7 +6357,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>549</v>
       </c>
@@ -6692,7 +6699,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>552</v>
       </c>
@@ -7037,7 +7044,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>554</v>
       </c>
@@ -7379,7 +7386,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>557</v>
       </c>
@@ -7724,7 +7731,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>559</v>
       </c>
@@ -8066,7 +8073,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>563</v>
       </c>
@@ -8408,7 +8415,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>566</v>
       </c>
@@ -8750,7 +8757,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>569</v>
       </c>
@@ -9092,7 +9099,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>572</v>
       </c>
@@ -9434,7 +9441,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>575</v>
       </c>
@@ -9776,7 +9783,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>578</v>
       </c>
@@ -10118,8 +10125,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:EC22"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10136,83 +10143,83 @@
       <selection activeCell="CA39" sqref="CA39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="1" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
     <col min="15" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" customWidth="1"/>
-    <col min="18" max="18" width="17.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" customWidth="1"/>
-    <col min="23" max="23" width="10.44140625" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" customWidth="1"/>
-    <col min="25" max="25" width="17.21875" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" customWidth="1"/>
-    <col min="27" max="28" width="12.77734375" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
+    <col min="18" max="18" width="17.25" customWidth="1"/>
+    <col min="19" max="19" width="13.875" customWidth="1"/>
+    <col min="20" max="20" width="16.125" customWidth="1"/>
+    <col min="21" max="21" width="11.625" customWidth="1"/>
+    <col min="22" max="22" width="8.5" customWidth="1"/>
+    <col min="23" max="23" width="10.5" customWidth="1"/>
+    <col min="24" max="24" width="7.5" customWidth="1"/>
+    <col min="25" max="25" width="17.25" customWidth="1"/>
+    <col min="26" max="26" width="9.5" customWidth="1"/>
+    <col min="27" max="28" width="12.75" customWidth="1"/>
+    <col min="29" max="29" width="11.625" customWidth="1"/>
     <col min="30" max="30" width="15" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" customWidth="1"/>
-    <col min="32" max="32" width="16.109375" customWidth="1"/>
+    <col min="31" max="31" width="10.5" customWidth="1"/>
+    <col min="32" max="32" width="16.125" customWidth="1"/>
     <col min="33" max="33" width="15" customWidth="1"/>
-    <col min="34" max="34" width="21.44140625" customWidth="1"/>
-    <col min="35" max="35" width="11.6640625" customWidth="1"/>
-    <col min="36" max="36" width="20.44140625" customWidth="1"/>
-    <col min="37" max="37" width="23.77734375" customWidth="1"/>
-    <col min="38" max="38" width="22.6640625" customWidth="1"/>
-    <col min="39" max="40" width="12.77734375" customWidth="1"/>
-    <col min="41" max="41" width="13.88671875" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="43" max="44" width="13.88671875" customWidth="1"/>
+    <col min="34" max="34" width="21.5" customWidth="1"/>
+    <col min="35" max="35" width="11.625" customWidth="1"/>
+    <col min="36" max="36" width="20.5" customWidth="1"/>
+    <col min="37" max="37" width="23.75" customWidth="1"/>
+    <col min="38" max="38" width="22.625" customWidth="1"/>
+    <col min="39" max="40" width="12.75" customWidth="1"/>
+    <col min="41" max="41" width="13.875" customWidth="1"/>
+    <col min="42" max="42" width="12.75" customWidth="1"/>
+    <col min="43" max="44" width="13.875" customWidth="1"/>
     <col min="45" max="46" width="15" customWidth="1"/>
-    <col min="47" max="48" width="12.77734375" customWidth="1"/>
-    <col min="49" max="49" width="13.88671875" customWidth="1"/>
-    <col min="50" max="50" width="16.109375" customWidth="1"/>
-    <col min="51" max="51" width="22.6640625" customWidth="1"/>
-    <col min="52" max="52" width="19.33203125" customWidth="1"/>
-    <col min="53" max="53" width="22.6640625" customWidth="1"/>
+    <col min="47" max="48" width="12.75" customWidth="1"/>
+    <col min="49" max="49" width="13.875" customWidth="1"/>
+    <col min="50" max="50" width="16.125" customWidth="1"/>
+    <col min="51" max="51" width="22.625" customWidth="1"/>
+    <col min="52" max="52" width="19.375" customWidth="1"/>
+    <col min="53" max="53" width="22.625" customWidth="1"/>
     <col min="54" max="54" width="15" customWidth="1"/>
-    <col min="55" max="55" width="18.33203125" customWidth="1"/>
-    <col min="56" max="56" width="17.21875" customWidth="1"/>
-    <col min="57" max="58" width="16.109375" customWidth="1"/>
-    <col min="59" max="60" width="17.21875" customWidth="1"/>
-    <col min="61" max="61" width="16.109375" customWidth="1"/>
-    <col min="62" max="62" width="17.21875" customWidth="1"/>
-    <col min="63" max="63" width="18.33203125" customWidth="1"/>
-    <col min="64" max="64" width="24.88671875" customWidth="1"/>
-    <col min="65" max="65" width="27.109375" customWidth="1"/>
-    <col min="66" max="66" width="20.44140625" customWidth="1"/>
-    <col min="67" max="67" width="16.109375" customWidth="1"/>
-    <col min="68" max="68" width="22.6640625" customWidth="1"/>
-    <col min="69" max="69" width="9.44140625" customWidth="1"/>
-    <col min="70" max="70" width="22.6640625" customWidth="1"/>
-    <col min="71" max="71" width="18.33203125" customWidth="1"/>
-    <col min="72" max="72" width="23.77734375" customWidth="1"/>
-    <col min="73" max="73" width="19.33203125" customWidth="1"/>
-    <col min="74" max="74" width="13.88671875" customWidth="1"/>
-    <col min="75" max="75" width="17.21875" customWidth="1"/>
+    <col min="55" max="55" width="18.375" customWidth="1"/>
+    <col min="56" max="56" width="17.25" customWidth="1"/>
+    <col min="57" max="58" width="16.125" customWidth="1"/>
+    <col min="59" max="60" width="17.25" customWidth="1"/>
+    <col min="61" max="61" width="16.125" customWidth="1"/>
+    <col min="62" max="62" width="17.25" customWidth="1"/>
+    <col min="63" max="63" width="18.375" customWidth="1"/>
+    <col min="64" max="64" width="24.875" customWidth="1"/>
+    <col min="65" max="65" width="27.125" customWidth="1"/>
+    <col min="66" max="66" width="20.5" customWidth="1"/>
+    <col min="67" max="67" width="16.125" customWidth="1"/>
+    <col min="68" max="68" width="22.625" customWidth="1"/>
+    <col min="69" max="69" width="9.5" customWidth="1"/>
+    <col min="70" max="70" width="22.625" customWidth="1"/>
+    <col min="71" max="71" width="18.375" customWidth="1"/>
+    <col min="72" max="72" width="23.75" customWidth="1"/>
+    <col min="73" max="73" width="19.375" customWidth="1"/>
+    <col min="74" max="74" width="13.875" customWidth="1"/>
+    <col min="75" max="75" width="17.25" customWidth="1"/>
     <col min="76" max="76" width="15" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" customWidth="1"/>
-    <col min="78" max="78" width="18.33203125" customWidth="1"/>
-    <col min="79" max="79" width="19.33203125" customWidth="1"/>
+    <col min="77" max="77" width="16.125" customWidth="1"/>
+    <col min="78" max="78" width="18.375" customWidth="1"/>
+    <col min="79" max="79" width="19.375" customWidth="1"/>
     <col min="80" max="81" width="26" customWidth="1"/>
-    <col min="82" max="82" width="13.88671875" customWidth="1"/>
+    <col min="82" max="82" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -10472,7 +10479,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -10729,7 +10736,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
@@ -10986,7 +10993,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
@@ -11243,7 +11250,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
@@ -11500,7 +11507,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>138</v>
       </c>
@@ -11757,7 +11764,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
@@ -12014,32 +12021,32 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12050,61 +12057,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="6.44140625" customWidth="1"/>
-    <col min="19" max="19" width="8.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" customWidth="1"/>
-    <col min="21" max="22" width="8.44140625" customWidth="1"/>
-    <col min="23" max="23" width="16.109375" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" customWidth="1"/>
-    <col min="25" max="25" width="19.33203125" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" customWidth="1"/>
-    <col min="28" max="28" width="16.109375" customWidth="1"/>
-    <col min="29" max="29" width="12.77734375" customWidth="1"/>
-    <col min="30" max="30" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="15" max="15" width="7.5" customWidth="1"/>
+    <col min="16" max="16" width="9.5" customWidth="1"/>
+    <col min="17" max="17" width="11.625" customWidth="1"/>
+    <col min="18" max="18" width="6.5" customWidth="1"/>
+    <col min="19" max="19" width="8.5" customWidth="1"/>
+    <col min="20" max="20" width="16.125" customWidth="1"/>
+    <col min="21" max="22" width="8.5" customWidth="1"/>
+    <col min="23" max="23" width="16.125" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="19.375" customWidth="1"/>
+    <col min="26" max="26" width="7.5" customWidth="1"/>
+    <col min="27" max="27" width="13.875" customWidth="1"/>
+    <col min="28" max="28" width="16.125" customWidth="1"/>
+    <col min="29" max="29" width="12.75" customWidth="1"/>
+    <col min="30" max="30" width="16.125" customWidth="1"/>
     <col min="31" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="18.33203125" customWidth="1"/>
-    <col min="34" max="34" width="13.88671875" customWidth="1"/>
-    <col min="35" max="35" width="18.33203125" customWidth="1"/>
-    <col min="36" max="36" width="10.44140625" customWidth="1"/>
-    <col min="37" max="37" width="16.109375" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" customWidth="1"/>
-    <col min="39" max="39" width="13.88671875" customWidth="1"/>
-    <col min="40" max="40" width="12.77734375" customWidth="1"/>
-    <col min="41" max="41" width="5.44140625" customWidth="1"/>
-    <col min="42" max="42" width="17.21875" customWidth="1"/>
-    <col min="43" max="44" width="20.44140625" customWidth="1"/>
-    <col min="45" max="45" width="10.44140625" customWidth="1"/>
-    <col min="46" max="46" width="13.88671875" customWidth="1"/>
+    <col min="33" max="33" width="18.375" customWidth="1"/>
+    <col min="34" max="34" width="13.875" customWidth="1"/>
+    <col min="35" max="35" width="18.375" customWidth="1"/>
+    <col min="36" max="36" width="10.5" customWidth="1"/>
+    <col min="37" max="37" width="16.125" customWidth="1"/>
+    <col min="38" max="38" width="12.75" customWidth="1"/>
+    <col min="39" max="39" width="13.875" customWidth="1"/>
+    <col min="40" max="40" width="12.75" customWidth="1"/>
+    <col min="41" max="41" width="5.5" customWidth="1"/>
+    <col min="42" max="42" width="17.25" customWidth="1"/>
+    <col min="43" max="44" width="20.5" customWidth="1"/>
+    <col min="45" max="45" width="10.5" customWidth="1"/>
+    <col min="46" max="46" width="13.875" customWidth="1"/>
     <col min="47" max="47" width="15" customWidth="1"/>
-    <col min="48" max="48" width="20.44140625" customWidth="1"/>
-    <col min="49" max="49" width="8.44140625" customWidth="1"/>
-    <col min="50" max="50" width="190.44140625" customWidth="1"/>
-    <col min="51" max="51" width="190.5546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.5" customWidth="1"/>
+    <col min="49" max="49" width="8.5" customWidth="1"/>
+    <col min="50" max="50" width="190.5" customWidth="1"/>
+    <col min="51" max="51" width="190.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.125" customWidth="1"/>
+    <col min="53" max="53" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>284</v>
       </c>
@@ -12268,7 +12277,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>507</v>
       </c>
@@ -12395,11 +12404,14 @@
       <c r="AY2" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA2" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB2" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>507</v>
       </c>
@@ -12526,11 +12538,14 @@
       <c r="AY3" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA3" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB3" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>507</v>
       </c>
@@ -12657,11 +12672,14 @@
       <c r="AY4" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA4" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB4" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>507</v>
       </c>
@@ -12788,11 +12806,14 @@
       <c r="AY5" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA5" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB5" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>507</v>
       </c>
@@ -12919,11 +12940,14 @@
       <c r="AY6" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA6" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB6" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>507</v>
       </c>
@@ -13050,11 +13074,14 @@
       <c r="AY7" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA7" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB7" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>507</v>
       </c>
@@ -13181,11 +13208,14 @@
       <c r="AY8" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA8" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB8" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>507</v>
       </c>
@@ -13312,11 +13342,14 @@
       <c r="AY9" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA9" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB9" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>507</v>
       </c>
@@ -13443,11 +13476,14 @@
       <c r="AY10" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA10" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB10" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>507</v>
       </c>
@@ -13574,11 +13610,14 @@
       <c r="AY11" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA11" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB11" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>507</v>
       </c>
@@ -13705,11 +13744,14 @@
       <c r="AY12" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA12" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB12" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>507</v>
       </c>
@@ -13836,11 +13878,14 @@
       <c r="AY13" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA13" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB13" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>507</v>
       </c>
@@ -13967,11 +14012,14 @@
       <c r="AY14" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA14" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB14" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>507</v>
       </c>
@@ -14098,33 +14146,37 @@
       <c r="AY15" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA15" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="BB15" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:AX15"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14132,60 +14184,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="6.44140625" customWidth="1"/>
-    <col min="19" max="19" width="8.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" customWidth="1"/>
-    <col min="21" max="22" width="8.44140625" customWidth="1"/>
-    <col min="23" max="23" width="16.109375" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" customWidth="1"/>
-    <col min="25" max="25" width="19.33203125" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" customWidth="1"/>
-    <col min="28" max="28" width="16.109375" customWidth="1"/>
-    <col min="29" max="29" width="12.77734375" customWidth="1"/>
-    <col min="30" max="30" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="15" max="15" width="7.5" customWidth="1"/>
+    <col min="16" max="16" width="9.5" customWidth="1"/>
+    <col min="17" max="17" width="11.625" customWidth="1"/>
+    <col min="18" max="18" width="6.5" customWidth="1"/>
+    <col min="19" max="19" width="8.5" customWidth="1"/>
+    <col min="20" max="20" width="16.125" customWidth="1"/>
+    <col min="21" max="22" width="8.5" customWidth="1"/>
+    <col min="23" max="23" width="16.125" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="19.375" customWidth="1"/>
+    <col min="26" max="26" width="7.5" customWidth="1"/>
+    <col min="27" max="27" width="13.875" customWidth="1"/>
+    <col min="28" max="28" width="16.125" customWidth="1"/>
+    <col min="29" max="29" width="12.75" customWidth="1"/>
+    <col min="30" max="30" width="16.125" customWidth="1"/>
     <col min="31" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="18.33203125" customWidth="1"/>
-    <col min="34" max="34" width="13.88671875" customWidth="1"/>
-    <col min="35" max="35" width="18.33203125" customWidth="1"/>
-    <col min="36" max="36" width="10.44140625" customWidth="1"/>
-    <col min="37" max="37" width="16.109375" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" customWidth="1"/>
-    <col min="39" max="39" width="13.88671875" customWidth="1"/>
-    <col min="40" max="40" width="12.77734375" customWidth="1"/>
-    <col min="41" max="41" width="5.44140625" customWidth="1"/>
-    <col min="42" max="42" width="17.21875" customWidth="1"/>
-    <col min="43" max="44" width="20.44140625" customWidth="1"/>
-    <col min="45" max="45" width="10.44140625" customWidth="1"/>
-    <col min="46" max="46" width="13.88671875" customWidth="1"/>
+    <col min="33" max="33" width="18.375" customWidth="1"/>
+    <col min="34" max="34" width="13.875" customWidth="1"/>
+    <col min="35" max="35" width="18.375" customWidth="1"/>
+    <col min="36" max="36" width="10.5" customWidth="1"/>
+    <col min="37" max="37" width="16.125" customWidth="1"/>
+    <col min="38" max="38" width="12.75" customWidth="1"/>
+    <col min="39" max="39" width="13.875" customWidth="1"/>
+    <col min="40" max="40" width="12.75" customWidth="1"/>
+    <col min="41" max="41" width="5.5" customWidth="1"/>
+    <col min="42" max="42" width="17.25" customWidth="1"/>
+    <col min="43" max="44" width="20.5" customWidth="1"/>
+    <col min="45" max="45" width="10.5" customWidth="1"/>
+    <col min="46" max="46" width="13.875" customWidth="1"/>
     <col min="47" max="47" width="15" customWidth="1"/>
-    <col min="48" max="48" width="20.44140625" customWidth="1"/>
-    <col min="49" max="49" width="8.44140625" customWidth="1"/>
-    <col min="50" max="50" width="190.44140625" customWidth="1"/>
+    <col min="48" max="48" width="20.5" customWidth="1"/>
+    <col min="49" max="49" width="8.5" customWidth="1"/>
+    <col min="50" max="50" width="7.75" customWidth="1"/>
+    <col min="51" max="51" width="170.25" customWidth="1"/>
+    <col min="52" max="52" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>284</v>
       </c>
@@ -14349,7 +14404,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>507</v>
       </c>
@@ -14476,11 +14531,14 @@
       <c r="AY2" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA2" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB2" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>507</v>
       </c>
@@ -14607,11 +14665,14 @@
       <c r="AY3" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA3" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB3" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>507</v>
       </c>
@@ -14738,11 +14799,14 @@
       <c r="AY4" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA4" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB4" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>507</v>
       </c>
@@ -14869,11 +14933,14 @@
       <c r="AY5" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA5" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB5" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>507</v>
       </c>
@@ -15000,11 +15067,14 @@
       <c r="AY6" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA6" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB6" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>507</v>
       </c>
@@ -15131,11 +15201,14 @@
       <c r="AY7" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA7" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB7" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>507</v>
       </c>
@@ -15262,11 +15335,14 @@
       <c r="AY8" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA8" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB8" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>507</v>
       </c>
@@ -15393,11 +15469,14 @@
       <c r="AY9" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA9" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB9" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>507</v>
       </c>
@@ -15524,11 +15603,14 @@
       <c r="AY10" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA10" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB10" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>507</v>
       </c>
@@ -15655,11 +15737,14 @@
       <c r="AY11" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA11" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB11" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>507</v>
       </c>
@@ -15786,11 +15871,14 @@
       <c r="AY12" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA12" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB12" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>507</v>
       </c>
@@ -15917,11 +16005,14 @@
       <c r="AY13" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA13" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB13" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>507</v>
       </c>
@@ -16048,11 +16139,14 @@
       <c r="AY14" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA14" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB14" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>507</v>
       </c>
@@ -16179,28 +16273,31 @@
       <c r="AY15" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="BA15" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="BB15" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:AX15"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -16212,32 +16309,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="9" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" customWidth="1"/>
-    <col min="19" max="19" width="6.44140625" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" customWidth="1"/>
-    <col min="23" max="23" width="20.44140625" customWidth="1"/>
-    <col min="25" max="25" width="15.109375" customWidth="1"/>
+    <col min="1" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="9" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
+    <col min="16" max="16" width="9.5" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="6.5" customWidth="1"/>
+    <col min="20" max="20" width="10.5" customWidth="1"/>
+    <col min="23" max="23" width="20.5" customWidth="1"/>
+    <col min="25" max="25" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>333</v>
       </c>
@@ -16317,7 +16414,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
@@ -16385,7 +16482,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
@@ -16453,7 +16550,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
@@ -16521,7 +16618,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>137</v>
       </c>
@@ -16589,7 +16686,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -16657,7 +16754,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>137</v>
       </c>
@@ -16725,7 +16822,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>137</v>
       </c>
@@ -16793,7 +16890,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>137</v>
       </c>
@@ -16861,7 +16958,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>137</v>
       </c>
@@ -16929,7 +17026,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>137</v>
       </c>
@@ -16997,7 +17094,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -17065,7 +17162,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>137</v>
       </c>
@@ -17133,7 +17230,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -17201,7 +17298,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
@@ -17269,74 +17366,74 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:Z15"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17352,9 +17449,9 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -17554,7 +17651,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>384</v>
       </c>
@@ -17715,7 +17812,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>384</v>
       </c>
@@ -17876,7 +17973,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>384</v>
       </c>
@@ -18022,7 +18119,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>384</v>
       </c>
@@ -18183,7 +18280,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>384</v>
       </c>
@@ -18344,7 +18441,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>384</v>
       </c>
@@ -18490,7 +18587,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>384</v>
       </c>
@@ -18651,7 +18748,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>384</v>
       </c>
@@ -18812,7 +18909,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>384</v>
       </c>
@@ -18958,7 +19055,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>384</v>
       </c>
@@ -19119,7 +19216,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>384</v>
       </c>
@@ -19280,7 +19377,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>384</v>
       </c>
@@ -19426,7 +19523,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>384</v>
       </c>
@@ -19563,7 +19660,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>384</v>
       </c>
@@ -19724,7 +19821,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>384</v>
       </c>
@@ -19885,7 +19982,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>384</v>
       </c>
@@ -20031,7 +20128,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>384</v>
       </c>
@@ -20168,7 +20265,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>384</v>
       </c>
@@ -20329,7 +20426,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>384</v>
       </c>
@@ -20490,7 +20587,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>384</v>
       </c>
@@ -20636,7 +20733,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>384</v>
       </c>
@@ -20797,7 +20894,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="23" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>384</v>
       </c>
@@ -20958,7 +21055,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="24" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>384</v>
       </c>
@@ -21104,7 +21201,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="25" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>384</v>
       </c>
@@ -21241,7 +21338,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>384</v>
       </c>
@@ -21399,7 +21496,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>384</v>
       </c>
@@ -21557,7 +21654,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>384</v>
       </c>
@@ -21715,7 +21812,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>384</v>
       </c>
@@ -21873,7 +21970,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>384</v>
       </c>
@@ -22031,7 +22128,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>384</v>
       </c>
@@ -22189,7 +22286,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>384</v>
       </c>
@@ -22347,7 +22444,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>384</v>
       </c>
@@ -22505,7 +22602,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>384</v>
       </c>
@@ -22663,7 +22760,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>384</v>
       </c>
@@ -22821,7 +22918,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>384</v>
       </c>
@@ -22979,7 +23076,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>384</v>
       </c>
@@ -23137,7 +23234,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>384</v>
       </c>
@@ -23295,7 +23392,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>384</v>
       </c>
@@ -23453,209 +23550,209 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:BO39"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23671,39 +23768,39 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="11" width="13.88671875" customWidth="1"/>
-    <col min="12" max="13" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" customWidth="1"/>
-    <col min="16" max="17" width="7.77734375" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" customWidth="1"/>
-    <col min="19" max="20" width="9.77734375" customWidth="1"/>
-    <col min="21" max="22" width="8.77734375" customWidth="1"/>
-    <col min="23" max="24" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="13" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
+    <col min="16" max="17" width="7.75" customWidth="1"/>
+    <col min="18" max="18" width="8.5" customWidth="1"/>
+    <col min="19" max="20" width="9.75" customWidth="1"/>
+    <col min="21" max="22" width="8.75" customWidth="1"/>
+    <col min="23" max="24" width="7.75" customWidth="1"/>
     <col min="25" max="25" width="15" customWidth="1"/>
-    <col min="26" max="26" width="92.88671875" customWidth="1"/>
-    <col min="27" max="27" width="9.77734375" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" customWidth="1"/>
-    <col min="29" max="30" width="12.77734375" customWidth="1"/>
-    <col min="31" max="31" width="11.77734375" customWidth="1"/>
-    <col min="32" max="33" width="8.77734375" customWidth="1"/>
-    <col min="34" max="34" width="11.77734375" customWidth="1"/>
-    <col min="35" max="35" width="16.109375" customWidth="1"/>
-    <col min="36" max="36" width="10.44140625" customWidth="1"/>
-    <col min="37" max="37" width="13.88671875" customWidth="1"/>
+    <col min="26" max="26" width="92.875" customWidth="1"/>
+    <col min="27" max="27" width="9.75" customWidth="1"/>
+    <col min="28" max="28" width="8.75" customWidth="1"/>
+    <col min="29" max="30" width="12.75" customWidth="1"/>
+    <col min="31" max="31" width="11.75" customWidth="1"/>
+    <col min="32" max="33" width="8.75" customWidth="1"/>
+    <col min="34" max="34" width="11.75" customWidth="1"/>
+    <col min="35" max="35" width="16.125" customWidth="1"/>
+    <col min="36" max="36" width="10.5" customWidth="1"/>
+    <col min="37" max="37" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -23816,7 +23913,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
@@ -23878,7 +23975,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>168</v>
       </c>
@@ -23940,7 +24037,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>168</v>
       </c>
@@ -24002,7 +24099,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>168</v>
       </c>
@@ -24064,7 +24161,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -24126,7 +24223,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -24188,7 +24285,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>168</v>
       </c>
@@ -24250,7 +24347,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>168</v>
       </c>
@@ -24312,7 +24409,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>168</v>
       </c>
@@ -24374,7 +24471,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>168</v>
       </c>
@@ -24436,7 +24533,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>168</v>
       </c>
@@ -24498,7 +24595,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>168</v>
       </c>
@@ -24560,7 +24657,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -24622,7 +24719,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>168</v>
       </c>
@@ -24684,22 +24781,22 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:AK15"/>
   <phoneticPr fontId="2" type="noConversion"/>
